--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDB2E73-C848-45D0-BAF4-395E5721AB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD21B7-EA65-48A2-873C-C859901659A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="162">
   <si>
     <t>Date</t>
   </si>
@@ -516,6 +515,9 @@
   </si>
   <si>
     <t>18:30 - 19:30 23:00 - 24:00</t>
+  </si>
+  <si>
+    <t>10:00-11:30 15:00 - 16:00</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1230,7 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1252,7 +1254,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.052325581395348</c:v>
+                  <c:v>17.255813953488371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,7 +1425,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2056320</xdr:colOff>
+      <xdr:colOff>2313081</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
@@ -2128,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2144,7 @@
     <col min="7" max="7" width="57.28515625" style="7" customWidth="1"/>
     <col min="8" max="8" width="29" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="10"/>
-    <col min="10" max="10" width="18.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="11" customWidth="1"/>
     <col min="11" max="13" width="11.5703125" style="9"/>
     <col min="14" max="14" width="39.42578125" style="9" customWidth="1"/>
     <col min="15" max="21" width="11.5703125" style="9"/>
@@ -2881,10 +2883,14 @@
       <c r="I20" s="25">
         <v>43922</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="24" t="s">
+        <v>161</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="8">
+        <v>2.5</v>
+      </c>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -3013,11 +3019,11 @@
       </c>
       <c r="M25" s="8">
         <f>SUM(M18:M24)</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="N25" s="29">
         <f>SUM(K25:M25)</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4759,15 +4765,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>25.5</v>
+        <v>28</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>209.5</v>
+        <v>212</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.52375000000000005</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4786,7 +4792,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>10475</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4798,7 +4804,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.052325581395348</v>
+        <v>17.255813953488371</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -4923,7 +4929,7 @@
       </c>
       <c r="C107" s="8">
         <f>N25</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
@@ -5001,7 +5007,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.052325581395348</v>
+        <v>17.255813953488371</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD21B7-EA65-48A2-873C-C859901659A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9FAECF-DFCE-4F0A-AA55-43DC9B36B8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -517,7 +517,10 @@
     <t>18:30 - 19:30 23:00 - 24:00</t>
   </si>
   <si>
-    <t>10:00-11:30 15:00 - 16:00</t>
+    <t>10:00-11:30 15:00 - 16:00 21:00 - 23:00</t>
+  </si>
+  <si>
+    <t>12:30 - 13:30 15:30 - 16:30 17:00 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1233,7 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1254,7 +1257,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.255813953488371</c:v>
+                  <c:v>17.379310344827587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,7 +2134,7 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2864,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>36</v>
       </c>
@@ -2889,9 +2892,11 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="N20" s="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
@@ -2915,10 +2920,14 @@
       <c r="I21" s="25">
         <v>43923</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="M21" s="8">
+        <v>2</v>
+      </c>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3019,11 +3028,11 @@
       </c>
       <c r="M25" s="8">
         <f>SUM(M18:M24)</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="N25" s="29">
         <f>SUM(K25:M25)</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4765,15 +4774,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4792,7 +4801,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>10600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4804,7 +4813,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.255813953488371</v>
+        <v>17.379310344827587</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -4929,7 +4938,7 @@
       </c>
       <c r="C107" s="8">
         <f>N25</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
@@ -5007,7 +5016,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.255813953488371</v>
+        <v>17.379310344827587</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9FAECF-DFCE-4F0A-AA55-43DC9B36B8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B61492-2138-4322-B87D-4DE21B63D679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -520,7 +520,19 @@
     <t>10:00-11:30 15:00 - 16:00 21:00 - 23:00</t>
   </si>
   <si>
-    <t>12:30 - 13:30 15:30 - 16:30 17:00 - 18:00</t>
+    <t>Lit Rev</t>
+  </si>
+  <si>
+    <t>12:30 - 13:30 15:30 - 16:30 17:00 - 18:00 19:30 - 20:30 21:30 - 22:00</t>
+  </si>
+  <si>
+    <t>20:00 - 21:00</t>
+  </si>
+  <si>
+    <t>14:30 - 16:00 21:30 - 22:30</t>
+  </si>
+  <si>
+    <t>Introduction + Referencing</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1245,7 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1257,7 +1269,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.379310344827587</c:v>
+                  <c:v>17.305555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,10 +2907,10 @@
         <v>4.5</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>40</v>
       </c>
@@ -2921,14 +2933,16 @@
         <v>43923</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8">
-        <v>2</v>
-      </c>
-      <c r="N21" s="7"/>
+        <v>4.5</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
@@ -2966,13 +2980,19 @@
       <c r="I23" s="25">
         <v>43925</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>52</v>
       </c>
@@ -2986,11 +3006,17 @@
       <c r="I24" s="25">
         <v>43926</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="7"/>
+      <c r="M24" s="8">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
@@ -3028,11 +3054,11 @@
       </c>
       <c r="M25" s="8">
         <f>SUM(M18:M24)</f>
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="N25" s="29">
         <f>SUM(K25:M25)</f>
-        <v>8.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4774,15 +4800,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>32</v>
+        <v>38.5</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>216</v>
+        <v>222.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.54</v>
+        <v>0.55625000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4801,7 +4827,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>10800</v>
+        <v>11125</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4813,7 +4839,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.379310344827587</v>
+        <v>17.305555555555554</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -4938,7 +4964,7 @@
       </c>
       <c r="C107" s="8">
         <f>N25</f>
-        <v>8.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
@@ -5016,7 +5042,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.379310344827587</v>
+        <v>17.305555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B61492-2138-4322-B87D-4DE21B63D679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0EEC74-5C6C-4710-ADDB-D49C3B92FF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="168">
   <si>
     <t>Date</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>Introduction + Referencing</t>
+  </si>
+  <si>
+    <t>11:30 - 13:00</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1272,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.305555555555554</c:v>
+                  <c:v>17.115384615384617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2146,7 +2149,7 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,11 +3088,15 @@
       <c r="I26" s="35">
         <v>43927</v>
       </c>
-      <c r="J26" s="32"/>
+      <c r="J26" s="32" t="s">
+        <v>167</v>
+      </c>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
-      <c r="N26" s="34"/>
+      <c r="N26" s="34" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -4839,7 +4846,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.305555555555554</v>
+        <v>17.115384615384617</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5042,7 +5049,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.305555555555554</v>
+        <v>17.115384615384617</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0EEC74-5C6C-4710-ADDB-D49C3B92FF54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D20BAF3-0151-4FCD-A9BC-BBF7B4EE5921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="172">
   <si>
     <t>Date</t>
   </si>
@@ -535,7 +535,19 @@
     <t>Introduction + Referencing</t>
   </si>
   <si>
-    <t>11:30 - 13:00</t>
+    <t>11:30 - 12:30 15:30 - 17:30 17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Report + Paper on MOG</t>
+  </si>
+  <si>
+    <t>21:00 - 24:00</t>
+  </si>
+  <si>
+    <t>Researching MoG, brutal.</t>
+  </si>
+  <si>
+    <t>9:00 - 11:00 12:30 - 13:30 14:30 - 15:00 17:00 - 18:30</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1263,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1272,7 +1284,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.115384615384617</c:v>
+                  <c:v>17.462365591397848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,6 +1480,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>505239</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>865788</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>18815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248EAB12-EBDB-4DD1-9A55-E1EBE5039240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4870174" y="25783761"/>
+          <a:ext cx="4791744" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2148,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3097,7 @@
         <v>17.5</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>55</v>
@@ -3064,7 +3120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>28</v>
       </c>
@@ -3092,10 +3148,14 @@
         <v>167</v>
       </c>
       <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="L26" s="33">
+        <v>1</v>
+      </c>
+      <c r="M26" s="33">
+        <v>2</v>
+      </c>
       <c r="N26" s="34" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3122,13 +3182,19 @@
       <c r="I27" s="35">
         <v>43928</v>
       </c>
-      <c r="J27" s="32"/>
+      <c r="J27" s="32" t="s">
+        <v>169</v>
+      </c>
       <c r="K27" s="39"/>
-      <c r="L27" s="33"/>
+      <c r="L27" s="33">
+        <v>3</v>
+      </c>
       <c r="M27" s="33"/>
-      <c r="N27" s="34"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>36</v>
       </c>
@@ -3146,11 +3212,17 @@
       <c r="I28" s="35">
         <v>43929</v>
       </c>
-      <c r="J28" s="32"/>
+      <c r="J28" s="32" t="s">
+        <v>171</v>
+      </c>
       <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
+      <c r="L28" s="33">
+        <v>3.5</v>
+      </c>
       <c r="M28" s="33"/>
-      <c r="N28" s="34"/>
+      <c r="N28" s="34" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
@@ -3284,7 +3356,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="I33" s="35" t="s">
         <v>55</v>
@@ -3296,15 +3368,15 @@
       </c>
       <c r="L33" s="8">
         <f>SUM(L26:L32)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M33" s="8">
         <f>SUM(M26:M32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" s="29">
         <f>SUM(K33:M33)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3523,7 +3595,7 @@
         <v>22.5</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="I41" s="30" t="s">
         <v>55</v>
@@ -3757,7 +3829,7 @@
         <v>13.5</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="I49" s="35" t="s">
         <v>55</v>
@@ -3990,7 +4062,7 @@
         <v>20.5</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="I57" s="30" t="s">
         <v>55</v>
@@ -4236,7 +4308,7 @@
         <v>12</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="I65" s="50" t="s">
         <v>55</v>
@@ -4479,7 +4551,7 @@
         <v>24.5</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I73" s="30" t="s">
         <v>55</v>
@@ -4803,19 +4875,19 @@
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
-        <v>76.5</v>
+        <v>84</v>
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>222.5</v>
+        <v>232</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.55625000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4834,7 +4906,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>11125</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4846,7 +4918,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.115384615384617</v>
+        <v>17.462365591397848</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -4980,7 +5052,7 @@
       </c>
       <c r="C108" s="8">
         <f>N33</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -5049,7 +5121,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.115384615384617</v>
+        <v>17.462365591397848</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D20BAF3-0151-4FCD-A9BC-BBF7B4EE5921}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A536B2-FB41-4D42-85C4-1A728BB57E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -547,7 +547,16 @@
     <t>Researching MoG, brutal.</t>
   </si>
   <si>
-    <t>9:00 - 11:00 12:30 - 13:30 14:30 - 15:00 17:00 - 18:30</t>
+    <t>Researching MoG, brutal. + Adding to LitRev</t>
+  </si>
+  <si>
+    <t>9:00 - 11:00 12:30 - 13:30 14:30 - 15:00 17:00 - 18:30 19:45 - 20:45</t>
+  </si>
+  <si>
+    <t>9:00 - 11:00 12:30 - 14:30</t>
+  </si>
+  <si>
+    <t>Clustering + MoG LitReview</t>
   </si>
 </sst>
 </file>
@@ -558,7 +567,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -609,6 +618,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD9D9D9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -787,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -959,6 +974,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,7 +1281,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1284,7 +1302,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.462365591397848</c:v>
+                  <c:v>17.76063829787234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,16 +1466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468076</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>79174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2313081</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:colOff>623429</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>78454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1484,16 +1502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>505239</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1209261</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>865788</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>18815</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2563722</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>101641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1516,7 +1534,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4870174" y="25783761"/>
+          <a:off x="2749826" y="26819087"/>
           <a:ext cx="4791744" cy="1286054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2204,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3212,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>36</v>
       </c>
@@ -3213,18 +3231,20 @@
         <v>43929</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K28" s="33"/>
       <c r="L28" s="33">
         <v>3.5</v>
       </c>
-      <c r="M28" s="33"/>
+      <c r="M28" s="33">
+        <v>2.5</v>
+      </c>
       <c r="N28" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>40</v>
       </c>
@@ -3242,11 +3262,17 @@
       <c r="I29" s="35">
         <v>43930</v>
       </c>
-      <c r="J29" s="32"/>
+      <c r="J29" s="32" t="s">
+        <v>173</v>
+      </c>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="40"/>
+      <c r="M29" s="33">
+        <v>4</v>
+      </c>
+      <c r="N29" s="70" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -3372,11 +3398,11 @@
       </c>
       <c r="M33" s="8">
         <f>SUM(M26:M32)</f>
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="N33" s="29">
         <f>SUM(K33:M33)</f>
-        <v>9.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4879,15 +4905,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>40.5</v>
+        <v>47</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>232</v>
+        <v>238.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.57999999999999996</v>
+        <v>0.59624999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4906,7 +4932,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>11600</v>
+        <v>11925</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4918,7 +4944,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.462365591397848</v>
+        <v>17.76063829787234</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5052,7 +5078,7 @@
       </c>
       <c r="C108" s="8">
         <f>N33</f>
-        <v>9.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -5121,7 +5147,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.462365591397848</v>
+        <v>17.76063829787234</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A536B2-FB41-4D42-85C4-1A728BB57E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A103B-9525-43FE-AD3A-A22DBA2906B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,10 +553,10 @@
     <t>9:00 - 11:00 12:30 - 13:30 14:30 - 15:00 17:00 - 18:30 19:45 - 20:45</t>
   </si>
   <si>
-    <t>9:00 - 11:00 12:30 - 14:30</t>
-  </si>
-  <si>
     <t>Clustering + MoG LitReview</t>
+  </si>
+  <si>
+    <t>9:00 - 11:00 12:30 - 14:30 15:30 - 17:00 17:30 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1302,7 +1302,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.76063829787234</c:v>
+                  <c:v>17.909574468085108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,7 +3244,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>40</v>
       </c>
@@ -3263,15 +3263,15 @@
         <v>43930</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
       <c r="M29" s="33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N29" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3398,11 +3398,11 @@
       </c>
       <c r="M33" s="8">
         <f>SUM(M26:M32)</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="N33" s="29">
         <f>SUM(K33:M33)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4905,15 +4905,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>238.5</v>
+        <v>240.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.59624999999999995</v>
+        <v>0.60124999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>11925</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.76063829787234</v>
+        <v>17.909574468085108</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C108" s="8">
         <f>N33</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.76063829787234</v>
+        <v>17.909574468085108</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A103B-9525-43FE-AD3A-A22DBA2906B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5963AE-D04A-4299-B066-7E15589D1AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="177">
   <si>
     <t>Date</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>9:00 - 11:00 12:30 - 14:30 15:30 - 17:00 17:30 - 18:00</t>
+  </si>
+  <si>
+    <t>9:30 - 11:30</t>
+  </si>
+  <si>
+    <t>LitRev: Mog and Gauss</t>
   </si>
 </sst>
 </file>
@@ -972,11 +978,11 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,7 +1287,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1302,7 +1308,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.909574468085108</c:v>
+                  <c:v>17.868421052631579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,18 +1874,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2223,7 +2229,7 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,7 +3276,7 @@
       <c r="M29" s="33">
         <v>6</v>
       </c>
-      <c r="N29" s="70" t="s">
+      <c r="N29" s="69" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3292,11 +3298,17 @@
       <c r="I30" s="35">
         <v>43931</v>
       </c>
-      <c r="J30" s="32"/>
+      <c r="J30" s="32" t="s">
+        <v>175</v>
+      </c>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="32"/>
+      <c r="M30" s="33">
+        <v>2</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
@@ -3398,11 +3410,11 @@
       </c>
       <c r="M33" s="8">
         <f>SUM(M26:M32)</f>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="N33" s="29">
         <f>SUM(K33:M33)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4905,15 +4917,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>240.5</v>
+        <v>242.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.60124999999999995</v>
+        <v>0.60624999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4932,7 +4944,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>12025</v>
+        <v>12125</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4944,7 +4956,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.909574468085108</v>
+        <v>17.868421052631579</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5078,7 +5090,7 @@
       </c>
       <c r="C108" s="8">
         <f>N33</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -5147,7 +5159,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.909574468085108</v>
+        <v>17.868421052631579</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5963AE-D04A-4299-B066-7E15589D1AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4D06B-B059-4CCA-B229-862F4ADB082E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,10 +559,10 @@
     <t>9:00 - 11:00 12:30 - 14:30 15:30 - 17:00 17:30 - 18:00</t>
   </si>
   <si>
-    <t>9:30 - 11:30</t>
-  </si>
-  <si>
     <t>LitRev: Mog and Gauss</t>
+  </si>
+  <si>
+    <t>9:30 - 11:30 12:30 - 14:30 15:30 - 16:30</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1287,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1308,7 +1308,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.868421052631579</c:v>
+                  <c:v>18.163157894736841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,7 +3280,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>44</v>
       </c>
@@ -3299,15 +3299,15 @@
         <v>43931</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3410,11 +3410,11 @@
       </c>
       <c r="M33" s="8">
         <f>SUM(M26:M32)</f>
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="N33" s="29">
         <f>SUM(K33:M33)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4917,15 +4917,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>242.5</v>
+        <v>246.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.60624999999999996</v>
+        <v>0.61624999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4944,7 +4944,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>12125</v>
+        <v>12325</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.868421052631579</v>
+        <v>18.163157894736841</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C108" s="8">
         <f>N33</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.868421052631579</v>
+        <v>18.163157894736841</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E4D06B-B059-4CCA-B229-862F4ADB082E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ECB434-5C23-4F41-A0AF-8BFA0242EB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="179">
   <si>
     <t>Date</t>
   </si>
@@ -563,6 +563,12 @@
   </si>
   <si>
     <t>9:30 - 11:30 12:30 - 14:30 15:30 - 16:30</t>
+  </si>
+  <si>
+    <t>MoG</t>
+  </si>
+  <si>
+    <t>10:00 - 12:00 15:00-17:00</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1308,7 +1314,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.163157894736841</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,7 +3423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>28</v>
       </c>
@@ -3439,11 +3445,17 @@
       <c r="I34" s="25">
         <v>43934</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="24" t="s">
+        <v>178</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
+      <c r="M34" s="8">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
@@ -3649,11 +3661,11 @@
       </c>
       <c r="M41" s="8">
         <f>SUM(M34:M40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" s="29">
         <f>SUM(K41:M41)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4917,15 +4929,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>246.5</v>
+        <v>248.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.61624999999999996</v>
+        <v>0.62124999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4944,7 +4956,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>12325</v>
+        <v>12425</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4956,7 +4968,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.163157894736841</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5099,7 +5111,7 @@
       </c>
       <c r="C109" s="8">
         <f>N41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -5159,7 +5171,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>18.163157894736841</v>
+        <v>17.75</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ECB434-5C23-4F41-A0AF-8BFA0242EB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE400D-3271-45FA-9C86-8CC6F80D6A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
     <t>MoG</t>
   </si>
   <si>
-    <t>10:00 - 12:00 15:00-17:00</t>
+    <t xml:space="preserve">10:00 - 12:00 15:00-17:00 19:00 - 20:00 </t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1296,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1314,7 +1314,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.75</c:v>
+                  <c:v>17.964285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,8 +2234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>28</v>
       </c>
@@ -3451,7 +3451,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N34" s="7" t="s">
         <v>177</v>
@@ -3661,11 +3661,11 @@
       </c>
       <c r="M41" s="8">
         <f>SUM(M34:M40)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" s="29">
         <f>SUM(K41:M41)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4929,15 +4929,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>248.5</v>
+        <v>251.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.62124999999999997</v>
+        <v>0.62875000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4956,7 +4956,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>12425</v>
+        <v>12575</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.75</v>
+        <v>17.964285714285715</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C109" s="8">
         <f>N41</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.75</v>
+        <v>17.964285714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE400D-3271-45FA-9C86-8CC6F80D6A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954D820-26D1-429E-B307-780318AF1C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -569,6 +569,12 @@
   </si>
   <si>
     <t xml:space="preserve">10:00 - 12:00 15:00-17:00 19:00 - 20:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>10:00 - 12:00 16:30 - 18:30</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1302,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1314,7 +1320,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.964285714285715</c:v>
+                  <c:v>18.030303030303031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,7 +3463,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>32</v>
       </c>
@@ -3479,11 +3485,19 @@
       <c r="I35" s="25">
         <v>43935</v>
       </c>
-      <c r="J35" s="24"/>
+      <c r="J35" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="7"/>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
@@ -3539,7 +3553,9 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="7"/>
+      <c r="N37" s="7" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
@@ -3657,15 +3673,15 @@
       </c>
       <c r="L41" s="8">
         <f>SUM(L34:L40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="8">
         <f>SUM(M34:M40)</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N41" s="29">
         <f>SUM(K41:M41)</f>
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4925,19 +4941,19 @@
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.62875000000000003</v>
+        <v>0.63749999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4956,7 +4972,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>12575</v>
+        <v>12750</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4968,7 +4984,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.964285714285715</v>
+        <v>18.030303030303031</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5111,7 +5127,7 @@
       </c>
       <c r="C109" s="8">
         <f>N41</f>
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -5171,7 +5187,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.964285714285715</v>
+        <v>18.030303030303031</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954D820-26D1-429E-B307-780318AF1C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213277DE-4253-4B54-BEB8-8083FF92865B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="183">
   <si>
     <t>Date</t>
   </si>
@@ -571,10 +571,16 @@
     <t xml:space="preserve">10:00 - 12:00 15:00-17:00 19:00 - 20:00 </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>10:00 - 12:00 16:30 - 18:30</t>
+    <t>10:00 - 12:00 16:30 - 18:30 23:00 - 23:30</t>
+  </si>
+  <si>
+    <t>9:30 - 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00 - 14:00  17:00 - 19:00 </t>
+  </si>
+  <si>
+    <t>Planning and learning Django</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1308,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1320,7 +1326,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.030303030303031</c:v>
+                  <c:v>18.054455445544555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,7 +3469,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>32</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>43935</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8">
@@ -3521,11 +3527,17 @@
       <c r="I36" s="25">
         <v>43936</v>
       </c>
-      <c r="J36" s="24"/>
+      <c r="J36" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="7"/>
+      <c r="M36" s="8">
+        <v>2</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
@@ -3549,12 +3561,16 @@
       <c r="I37" s="25">
         <v>43937</v>
       </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="8"/>
+      <c r="J37" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K37" s="8">
+        <v>3.5</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3669,7 +3685,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="8">
         <f>SUM(K34:K40)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L41" s="8">
         <f>SUM(L34:L40)</f>
@@ -3677,11 +3693,11 @@
       </c>
       <c r="M41" s="8">
         <f>SUM(M34:M40)</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="N41" s="29">
         <f>SUM(K41:M41)</f>
-        <v>8.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4937,7 +4953,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>98.5</v>
+        <v>102</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -4945,15 +4961,15 @@
       </c>
       <c r="F86" s="61">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>62.5</v>
+        <v>64.5</v>
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>255</v>
+        <v>260.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.63749999999999996</v>
+        <v>0.65125</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4972,7 +4988,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>12750</v>
+        <v>13025</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4984,7 +5000,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.030303030303031</v>
+        <v>18.054455445544555</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5127,7 +5143,7 @@
       </c>
       <c r="C109" s="8">
         <f>N41</f>
-        <v>8.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -5187,7 +5203,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>18.030303030303031</v>
+        <v>18.054455445544555</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213277DE-4253-4B54-BEB8-8083FF92865B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700C6D2F-16A6-481B-9C6E-016AFF2B610F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="187">
   <si>
     <t>Date</t>
   </si>
@@ -577,10 +577,22 @@
     <t>9:30 - 11:30</t>
   </si>
   <si>
-    <t xml:space="preserve">12:00 - 14:00  17:00 - 19:00 </t>
-  </si>
-  <si>
     <t>Planning and learning Django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00 - 13:30  17:00 - 19:00 </t>
+  </si>
+  <si>
+    <t>Learning Django Basics</t>
+  </si>
+  <si>
+    <t>9:00 - 11:00 11:30 - 13:30  16:00 - 16:30</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00 13:30 - 15:30</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1320,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1326,7 +1338,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.054455445544555</c:v>
+                  <c:v>18.077669902912621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,7 +3574,7 @@
         <v>43937</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K37" s="8">
         <v>3.5</v>
@@ -3570,10 +3582,10 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>44</v>
       </c>
@@ -3595,11 +3607,17 @@
       <c r="I38" s="25">
         <v>43938</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="8"/>
+      <c r="J38" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" s="8">
+        <v>3.5</v>
+      </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
@@ -3623,11 +3641,17 @@
       <c r="I39" s="25">
         <v>43939</v>
       </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="8"/>
+      <c r="J39" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K39" s="8">
+        <v>2</v>
+      </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
+      <c r="N39" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
@@ -3685,7 +3709,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="8">
         <f>SUM(K34:K40)</f>
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="L41" s="8">
         <f>SUM(L34:L40)</f>
@@ -3697,7 +3721,7 @@
       </c>
       <c r="N41" s="29">
         <f>SUM(K41:M41)</f>
-        <v>14</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4953,7 +4977,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>102</v>
+        <v>107.5</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -4965,11 +4989,11 @@
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>260.5</v>
+        <v>266</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.65125</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4988,7 +5012,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>13025</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5000,7 +5024,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.054455445544555</v>
+        <v>18.077669902912621</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5143,7 +5167,7 @@
       </c>
       <c r="C109" s="8">
         <f>N41</f>
-        <v>14</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -5203,7 +5227,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>18.054455445544555</v>
+        <v>18.077669902912621</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700C6D2F-16A6-481B-9C6E-016AFF2B610F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CF807-6F1D-4AC5-A4E0-AAB66E256981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -593,6 +593,12 @@
   </si>
   <si>
     <t>11:00 - 12:00 13:30 - 15:30</t>
+  </si>
+  <si>
+    <t>22:30 - 23:30</t>
+  </si>
+  <si>
+    <t>12:30 - 13:00 21:30-22:30</t>
   </si>
 </sst>
 </file>
@@ -1320,10 +1326,10 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1338,7 +1344,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.077669902912621</c:v>
+                  <c:v>17.866666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,7 +2265,7 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,11 +3681,17 @@
       <c r="I40" s="25">
         <v>43940</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="8"/>
+      <c r="J40" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
@@ -3709,7 +3721,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="8">
         <f>SUM(K34:K40)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L41" s="8">
         <f>SUM(L34:L40)</f>
@@ -3721,7 +3733,7 @@
       </c>
       <c r="N41" s="29">
         <f>SUM(K41:M41)</f>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3748,8 +3760,12 @@
       <c r="I42" s="35">
         <v>43941</v>
       </c>
-      <c r="J42" s="32"/>
-      <c r="K42" s="33"/>
+      <c r="J42" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="K42" s="33">
+        <v>1</v>
+      </c>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="34"/>
@@ -3943,7 +3959,7 @@
       <c r="J49" s="32"/>
       <c r="K49" s="8">
         <f>SUM(K42:K48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="8">
         <f>SUM(L42:L48)</f>
@@ -3955,7 +3971,7 @@
       </c>
       <c r="N49" s="29">
         <f>SUM(K49:M49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4977,7 +4993,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>107.5</v>
+        <v>109.5</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -4989,11 +5005,11 @@
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.66500000000000004</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5012,7 +5028,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>13300</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5024,7 +5040,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.077669902912621</v>
+        <v>17.866666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5167,7 +5183,7 @@
       </c>
       <c r="C109" s="8">
         <f>N41</f>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -5176,7 +5192,7 @@
       </c>
       <c r="C110" s="8">
         <f>N49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -5227,7 +5243,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>18.077669902912621</v>
+        <v>17.866666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CF807-6F1D-4AC5-A4E0-AAB66E256981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA731CA9-8894-4BD6-871B-315ECCA4090F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="195">
   <si>
     <t>Date</t>
   </si>
@@ -599,6 +599,24 @@
   </si>
   <si>
     <t>12:30 - 13:00 21:30-22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django Site + Django Video </t>
+  </si>
+  <si>
+    <t>14:00 - 16:00 20:15 - 22:45</t>
+  </si>
+  <si>
+    <t>9:15 - 11:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streaming Video </t>
+  </si>
+  <si>
+    <t>19:00 - 20:00</t>
+  </si>
+  <si>
+    <t>Streaming Detection Results</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1347,7 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1344,7 +1362,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.866666666666667</c:v>
+                  <c:v>17.726851851851851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3770,7 +3788,7 @@
       <c r="M42" s="33"/>
       <c r="N42" s="34"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>32</v>
       </c>
@@ -3788,11 +3806,17 @@
       <c r="I43" s="35">
         <v>43942</v>
       </c>
-      <c r="J43" s="32"/>
-      <c r="K43" s="33"/>
+      <c r="J43" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" s="33">
+        <v>4.5</v>
+      </c>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
-      <c r="N43" s="34"/>
+      <c r="N43" s="34" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
@@ -3818,11 +3842,17 @@
       <c r="I44" s="35">
         <v>43943</v>
       </c>
-      <c r="J44" s="32"/>
-      <c r="K44" s="33"/>
+      <c r="J44" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" s="33">
+        <v>1</v>
+      </c>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
-      <c r="N44" s="34"/>
+      <c r="N44" s="34" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
@@ -3848,11 +3878,15 @@
       <c r="I45" s="35">
         <v>43944</v>
       </c>
-      <c r="J45" s="32"/>
+      <c r="J45" s="32" t="s">
+        <v>193</v>
+      </c>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
-      <c r="N45" s="34"/>
+      <c r="N45" s="34" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
@@ -3959,7 +3993,7 @@
       <c r="J49" s="32"/>
       <c r="K49" s="8">
         <f>SUM(K42:K48)</f>
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="L49" s="8">
         <f>SUM(L42:L48)</f>
@@ -3971,7 +4005,7 @@
       </c>
       <c r="N49" s="29">
         <f>SUM(K49:M49)</f>
-        <v>1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4993,7 +5027,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>109.5</v>
+        <v>115</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -5005,11 +5039,11 @@
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>268</v>
+        <v>273.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.67</v>
+        <v>0.68374999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5028,7 +5062,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>13400</v>
+        <v>13675</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5040,7 +5074,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.866666666666667</v>
+        <v>17.726851851851851</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5192,7 +5226,7 @@
       </c>
       <c r="C110" s="8">
         <f>N49</f>
-        <v>1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -5243,7 +5277,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.866666666666667</v>
+        <v>17.726851851851851</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA731CA9-8894-4BD6-871B-315ECCA4090F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736B8E0-14DF-4398-9C37-EA3CDAF72C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="198">
   <si>
     <t>Date</t>
   </si>
@@ -613,10 +613,19 @@
     <t xml:space="preserve">Streaming Video </t>
   </si>
   <si>
-    <t>19:00 - 20:00</t>
-  </si>
-  <si>
     <t>Streaming Detection Results</t>
+  </si>
+  <si>
+    <t>19:00 - 21:00</t>
+  </si>
+  <si>
+    <t>Integrating Stream Into Detection</t>
+  </si>
+  <si>
+    <t>09:00 - 10:30 14:30 - 15:30 17:00 - 18:00 19:30 - 20:00 21:00 - 23:00</t>
+  </si>
+  <si>
+    <t>09:30-11:30</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1356,7 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1362,7 +1371,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.726851851851851</c:v>
+                  <c:v>17.913636363636364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="C45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3879,16 +3888,18 @@
         <v>43944</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="K45" s="33"/>
+        <v>194</v>
+      </c>
+      <c r="K45" s="33">
+        <v>2</v>
+      </c>
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
       <c r="N45" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>44</v>
       </c>
@@ -3906,11 +3917,17 @@
       <c r="I46" s="35">
         <v>43945</v>
       </c>
-      <c r="J46" s="32"/>
-      <c r="K46" s="33"/>
+      <c r="J46" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" s="33">
+        <v>6</v>
+      </c>
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
-      <c r="N46" s="32"/>
+      <c r="N46" s="32" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
@@ -3930,11 +3947,15 @@
       <c r="I47" s="35">
         <v>43946</v>
       </c>
-      <c r="J47" s="32"/>
+      <c r="J47" s="32" t="s">
+        <v>197</v>
+      </c>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
-      <c r="N47" s="32"/>
+      <c r="N47" s="32" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -3993,7 +4014,7 @@
       <c r="J49" s="32"/>
       <c r="K49" s="8">
         <f>SUM(K42:K48)</f>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="L49" s="8">
         <f>SUM(L42:L48)</f>
@@ -4005,7 +4026,7 @@
       </c>
       <c r="N49" s="29">
         <f>SUM(K49:M49)</f>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -5027,7 +5048,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -5039,11 +5060,11 @@
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>273.5</v>
+        <v>281.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.68374999999999997</v>
+        <v>0.70374999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5062,7 +5083,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>13675</v>
+        <v>14075</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5074,7 +5095,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.726851851851851</v>
+        <v>17.913636363636364</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5226,7 +5247,7 @@
       </c>
       <c r="C110" s="8">
         <f>N49</f>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -5277,7 +5298,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.726851851851851</v>
+        <v>17.913636363636364</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736B8E0-14DF-4398-9C37-EA3CDAF72C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0987F668-B8D3-4113-967F-45137B25B94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,7 @@
     <t>09:00 - 10:30 14:30 - 15:30 17:00 - 18:00 19:30 - 20:00 21:00 - 23:00</t>
   </si>
   <si>
-    <t>09:30-11:30</t>
+    <t>09:30-11:30 13:30 - 15:30</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1356,7 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1371,7 +1371,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.913636363636364</c:v>
+                  <c:v>18.040909090909093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="C87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3929,7 +3929,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>48</v>
       </c>
@@ -3950,7 +3950,9 @@
       <c r="J47" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="K47" s="33"/>
+      <c r="K47" s="33">
+        <v>2</v>
+      </c>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
       <c r="N47" s="32" t="s">
@@ -4014,7 +4016,7 @@
       <c r="J49" s="32"/>
       <c r="K49" s="8">
         <f>SUM(K42:K48)</f>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="L49" s="8">
         <f>SUM(L42:L48)</f>
@@ -4026,7 +4028,7 @@
       </c>
       <c r="N49" s="29">
         <f>SUM(K49:M49)</f>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -5048,7 +5050,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -5060,11 +5062,11 @@
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>281.5</v>
+        <v>283.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.70374999999999999</v>
+        <v>0.70874999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5083,7 +5085,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>14075</v>
+        <v>14175</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5095,7 +5097,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.913636363636364</v>
+        <v>18.040909090909093</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5247,7 +5249,7 @@
       </c>
       <c r="C110" s="8">
         <f>N49</f>
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -5298,7 +5300,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.913636363636364</v>
+        <v>18.040909090909093</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0987F668-B8D3-4113-967F-45137B25B94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D3093-3F44-46E4-B7D4-477349E28A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="201">
   <si>
     <t>Date</t>
   </si>
@@ -626,6 +626,15 @@
   </si>
   <si>
     <t>09:30-11:30 13:30 - 15:30</t>
+  </si>
+  <si>
+    <t>10:30 - 11:30</t>
+  </si>
+  <si>
+    <t>10:30-12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flask </t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1365,7 @@
                   <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.5</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1371,7 +1380,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.040909090909093</c:v>
+                  <c:v>17.84375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,7 +3960,7 @@
         <v>197</v>
       </c>
       <c r="K47" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
@@ -3983,11 +3992,17 @@
       <c r="I48" s="35">
         <v>43947</v>
       </c>
-      <c r="J48" s="32"/>
-      <c r="K48" s="33"/>
+      <c r="J48" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="K48" s="33">
+        <v>1</v>
+      </c>
       <c r="L48" s="33"/>
       <c r="M48" s="33"/>
-      <c r="N48" s="32"/>
+      <c r="N48" s="32" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
@@ -4016,7 +4031,7 @@
       <c r="J49" s="32"/>
       <c r="K49" s="8">
         <f>SUM(K42:K48)</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="L49" s="8">
         <f>SUM(L42:L48)</f>
@@ -4028,7 +4043,7 @@
       </c>
       <c r="N49" s="29">
         <f>SUM(K49:M49)</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4053,11 +4068,15 @@
       <c r="I50" s="25">
         <v>43948</v>
       </c>
-      <c r="J50" s="24"/>
+      <c r="J50" s="24" t="s">
+        <v>199</v>
+      </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="7"/>
+      <c r="N50" s="7" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
@@ -5050,7 +5069,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -5062,11 +5081,11 @@
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>283.5</v>
+        <v>285.5</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.70874999999999999</v>
+        <v>0.71375</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5085,7 +5104,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>14175</v>
+        <v>14275</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5097,7 +5116,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.040909090909093</v>
+        <v>17.84375</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5249,7 +5268,7 @@
       </c>
       <c r="C110" s="8">
         <f>N49</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -5300,7 +5319,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>18.040909090909093</v>
+        <v>17.84375</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D3093-3F44-46E4-B7D4-477349E28A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E294A0-BD43-40EB-818A-A39129CABE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="203">
   <si>
     <t>Date</t>
   </si>
@@ -631,10 +631,16 @@
     <t>10:30 - 11:30</t>
   </si>
   <si>
-    <t>10:30-12:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flask </t>
+    <t>Flask  + Learning Flask</t>
+  </si>
+  <si>
+    <t>10:30-12:30 13:00 - 15:00 18:30 - 20:30</t>
+  </si>
+  <si>
+    <t>Learning Flask</t>
+  </si>
+  <si>
+    <t>09:30 - 11:30 13:15 - 12:45 18:30 - 20:00</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1374,7 @@
                   <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -1380,7 +1386,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>17.84375</c:v>
+                  <c:v>18.274336283185843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4046,7 +4052,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>28</v>
       </c>
@@ -4069,16 +4075,18 @@
         <v>43948</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="K50" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="K50" s="8">
+        <v>6</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>32</v>
       </c>
@@ -4100,11 +4108,17 @@
       <c r="I51" s="25">
         <v>43949</v>
       </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="8"/>
+      <c r="J51" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K51" s="8">
+        <v>3.5</v>
+      </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
-      <c r="N51" s="7"/>
+      <c r="N51" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -4268,7 +4282,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="8">
         <f>SUM(K50:K56)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L57" s="8">
         <f>SUM(L50:L56)</f>
@@ -4280,7 +4294,7 @@
       </c>
       <c r="N57" s="29">
         <f>SUM(K57:M57)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -5069,7 +5083,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>127</v>
+        <v>136.5</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -5081,11 +5095,11 @@
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>285.5</v>
+        <v>295</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.71375</v>
+        <v>0.73750000000000004</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5104,7 +5118,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>14275</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5116,7 +5130,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>17.84375</v>
+        <v>18.274336283185843</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5277,7 +5291,7 @@
       </c>
       <c r="C111" s="8">
         <f>N57</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
@@ -5319,7 +5333,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>17.84375</v>
+        <v>18.274336283185843</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E294A0-BD43-40EB-818A-A39129CABE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ECAA41-8E87-4FA7-8250-8B8D48B3A19C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -640,7 +640,31 @@
     <t>Learning Flask</t>
   </si>
   <si>
-    <t>09:30 - 11:30 13:15 - 12:45 18:30 - 20:00</t>
+    <t>09:30 - 11:30 13:15 - 12:45 19:30 - 21:30</t>
+  </si>
+  <si>
+    <t>Implementing Flask App</t>
+  </si>
+  <si>
+    <t>09:00-11:00 13:30 - 15:30 20:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Flask App</t>
+  </si>
+  <si>
+    <t>11:00 - 13:00 15:00 - 15:15 21:00 - 23:00</t>
+  </si>
+  <si>
+    <t>11:30 - 12:30</t>
+  </si>
+  <si>
+    <t>12:30 - 14:00</t>
+  </si>
+  <si>
+    <t>Flask App + Detection</t>
+  </si>
+  <si>
+    <t>10:30 - 11:30 17:00 - 19:00</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1398,10 @@
                   <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1386,7 +1410,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.274336283185843</c:v>
+                  <c:v>18.294117647058822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4112,7 +4136,7 @@
         <v>202</v>
       </c>
       <c r="K51" s="8">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -4120,7 +4144,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>36</v>
       </c>
@@ -4142,13 +4166,19 @@
       <c r="I52" s="25">
         <v>43950</v>
       </c>
-      <c r="J52" s="24"/>
-      <c r="K52" s="8"/>
+      <c r="J52" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K52" s="8">
+        <v>6</v>
+      </c>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="N52" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>40</v>
       </c>
@@ -4170,11 +4200,17 @@
       <c r="I53" s="25">
         <v>43951</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="8"/>
+      <c r="J53" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="K53" s="8">
+        <v>4.25</v>
+      </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
-      <c r="N53" s="7"/>
+      <c r="N53" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
@@ -4198,11 +4234,17 @@
       <c r="I54" s="25">
         <v>43952</v>
       </c>
-      <c r="J54" s="41"/>
-      <c r="K54" s="8"/>
+      <c r="J54" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1</v>
+      </c>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="7"/>
+      <c r="N54" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
@@ -4248,11 +4290,17 @@
       <c r="I56" s="25">
         <v>43954</v>
       </c>
-      <c r="J56" s="24"/>
-      <c r="K56" s="8"/>
+      <c r="J56" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1.5</v>
+      </c>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="7"/>
+      <c r="N56" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
@@ -4282,7 +4330,7 @@
       <c r="J57" s="7"/>
       <c r="K57" s="8">
         <f>SUM(K50:K56)</f>
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="L57" s="8">
         <f>SUM(L50:L56)</f>
@@ -4294,10 +4342,10 @@
       </c>
       <c r="N57" s="29">
         <f>SUM(K57:M57)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>28</v>
       </c>
@@ -4323,11 +4371,17 @@
       <c r="I58" s="35">
         <v>43955</v>
       </c>
-      <c r="J58" s="32"/>
-      <c r="K58" s="33"/>
+      <c r="J58" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="K58" s="33">
+        <v>1</v>
+      </c>
       <c r="L58" s="33"/>
       <c r="M58" s="33"/>
-      <c r="N58" s="34"/>
+      <c r="N58" s="34" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
@@ -4528,7 +4582,7 @@
       <c r="J65" s="47"/>
       <c r="K65" s="8">
         <f>SUM(K58:K64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="8">
         <f>SUM(L58:L64)</f>
@@ -4540,7 +4594,7 @@
       </c>
       <c r="N65" s="29">
         <f>SUM(K65:M65)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5083,7 +5137,7 @@
       </c>
       <c r="D86" s="61">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>136.5</v>
+        <v>152.5</v>
       </c>
       <c r="E86" s="61">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -5095,11 +5149,11 @@
       </c>
       <c r="G86" s="63">
         <f>SUM(D86:F86) + 9</f>
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H86" s="64">
         <f>G86/400</f>
-        <v>0.73750000000000004</v>
+        <v>0.77749999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5118,7 +5172,7 @@
       <c r="F88" s="61"/>
       <c r="G88" s="58">
         <f>G86*50</f>
-        <v>14750</v>
+        <v>15550</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5130,7 +5184,7 @@
       </c>
       <c r="E90" s="67">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.274336283185843</v>
+        <v>18.294117647058822</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5291,7 +5345,7 @@
       </c>
       <c r="C111" s="8">
         <f>N57</f>
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
@@ -5300,7 +5354,7 @@
       </c>
       <c r="C112" s="8">
         <f>N65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -5333,7 +5387,7 @@
       </c>
       <c r="C116" s="68">
         <f ca="1">E90</f>
-        <v>18.274336283185843</v>
+        <v>18.294117647058822</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ECAA41-8E87-4FA7-8250-8B8D48B3A19C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDDF0A-6F33-49C6-A1D5-A365D9692496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="223">
   <si>
     <t>Date</t>
   </si>
@@ -664,16 +664,53 @@
     <t>Flask App + Detection</t>
   </si>
   <si>
-    <t>10:30 - 11:30 17:00 - 19:00</t>
+    <t>10:30 - 11:30 17:00 - 19:00 19:30 - 20:30</t>
+  </si>
+  <si>
+    <t>Database Connection</t>
+  </si>
+  <si>
+    <t>12:00 - 13:30 17:00 - 19:00 20:30 - 21:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report + Reassess Situation </t>
+  </si>
+  <si>
+    <t>Wk22</t>
+  </si>
+  <si>
+    <t>Wk23</t>
+  </si>
+  <si>
+    <t>Wk24</t>
+  </si>
+  <si>
+    <t>Wk25</t>
+  </si>
+  <si>
+    <t>Wk26</t>
+  </si>
+  <si>
+    <t>Wk27</t>
+  </si>
+  <si>
+    <t>Wk28</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00 13:00 - 15:30 21:30 - 24:00</t>
+  </si>
+  <si>
+    <t>10:00 - 12:00 13:00 - 15:00 19:30 - 21:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -734,7 +771,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +806,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3B3838"/>
         <bgColor rgb="FF404040"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor rgb="FF0D0D0D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor rgb="FF404040"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -910,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -922,7 +983,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,127 +992,46 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1062,12 +1041,9 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1080,8 +1056,143 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1090,7 +1201,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1401,7 +1525,7 @@
                   <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1410,7 +1534,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.294117647058822</c:v>
+                  <c:v>18.647540983606557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,18 +2100,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2330,3075 +2454,3965 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5"/>
-    <col min="2" max="2" width="11.5703125" style="6"/>
-    <col min="3" max="3" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="8"/>
-    <col min="6" max="6" width="9.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="29" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="10"/>
-    <col min="10" max="10" width="14.42578125" style="11" customWidth="1"/>
-    <col min="11" max="13" width="11.5703125" style="9"/>
-    <col min="14" max="14" width="39.42578125" style="9" customWidth="1"/>
-    <col min="15" max="21" width="11.5703125" style="9"/>
-    <col min="22" max="22" width="11.5703125" style="12"/>
-    <col min="23" max="1025" width="11.5703125" style="13"/>
+    <col min="1" max="1" width="11.5703125" style="67"/>
+    <col min="2" max="2" width="11.5703125" style="5"/>
+    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="7"/>
+    <col min="6" max="6" width="9.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="29" style="61" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="62"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="13" width="11.5703125" style="61"/>
+    <col min="14" max="14" width="39.42578125" style="61" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="61" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="63"/>
+    <col min="17" max="17" width="16.28515625" style="61" customWidth="1"/>
+    <col min="18" max="20" width="11.5703125" style="61"/>
+    <col min="21" max="21" width="24.85546875" style="61" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="33"/>
+    <col min="23" max="1025" width="11.5703125" style="34"/>
+    <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="21"/>
+      <c r="O1" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="11">
         <v>43836</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="E2" s="8">
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="37">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="12">
         <v>43906</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="37">
         <v>1</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="21"/>
+      <c r="O2" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="68">
+        <v>43976</v>
+      </c>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="11">
         <v>43837</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="8">
+      <c r="C3" s="36"/>
+      <c r="D3" s="37">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="37">
         <v>0.5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="12">
         <v>43907</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="37">
         <v>4</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="21"/>
+      <c r="O3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="68">
+        <v>43977</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
     </row>
     <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="11">
         <v>43838</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="8">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="37">
         <v>0.5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="12">
         <v>43908</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="37">
         <v>2.5</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37">
         <v>2</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="21"/>
+      <c r="O4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="68">
+        <v>43978</v>
+      </c>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="11">
         <v>43839</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="8">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37">
         <v>5</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="37">
         <v>0.5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="12">
         <v>43909</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37">
         <v>2</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="21"/>
+      <c r="O5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="68">
+        <v>43979</v>
+      </c>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="11">
         <v>43840</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="8">
+      <c r="C6" s="36"/>
+      <c r="D6" s="37">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="12">
         <v>43910</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37">
         <v>3</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="21"/>
+      <c r="O6" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="68">
+        <v>43980</v>
+      </c>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="11">
         <v>43841</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="8">
+      <c r="C7" s="36"/>
+      <c r="D7" s="37">
         <v>3</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="12">
         <v>43911</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37">
         <v>2.5</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="21"/>
+      <c r="O7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="68">
+        <v>43981</v>
+      </c>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="11">
         <v>43842</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="8">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37">
         <v>2</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="12">
         <v>43912</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="21"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="68">
+        <v>43982</v>
+      </c>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="8">
+      <c r="C9" s="38"/>
+      <c r="D9" s="37">
         <f>SUM(D3:D8)</f>
         <v>15</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="37">
         <f>SUM(E2:E8)</f>
         <v>2.5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="37">
         <f>SUM(F2:F8)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="40">
         <f>SUM(D9:F9)</f>
         <v>18.5</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8">
+      <c r="J9" s="38"/>
+      <c r="K9" s="37">
         <f>SUM(K2:K8)</f>
         <v>7.5</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="37">
         <f>SUM(L2:L8)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="37">
         <f>SUM(M2:M8)</f>
         <v>9.5</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="40">
         <f>SUM(K9:M9)</f>
         <v>17</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="21"/>
+      <c r="O9" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="P9" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="14">
         <v>43843</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33">
+      <c r="C10" s="41"/>
+      <c r="D10" s="16">
         <v>4</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="15">
         <v>43913</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="26"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="43">
+        <v>43983</v>
+      </c>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="44"/>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="14">
         <v>43844</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33">
+      <c r="C11" s="41"/>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="15">
         <v>43914</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16">
         <v>4</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="42" t="s">
         <v>60</v>
       </c>
+      <c r="O11" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="43">
+        <v>43984</v>
+      </c>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="14">
         <v>43845</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33">
+      <c r="C12" s="41"/>
+      <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="15">
         <v>43915</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16">
         <v>4</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="42" t="s">
         <v>63</v>
       </c>
+      <c r="O12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="43">
+        <v>43985</v>
+      </c>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="14">
         <v>43846</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33">
+      <c r="C13" s="41"/>
+      <c r="D13" s="16">
         <v>4</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="15">
         <v>43916</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="43">
+        <v>43986</v>
+      </c>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="14">
         <v>43847</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="22" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="15">
         <v>43917</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="32"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="43">
+        <v>43987</v>
+      </c>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="14">
         <v>43848</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="22" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="15">
         <v>43918</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33">
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16">
         <v>2</v>
       </c>
-      <c r="N15" s="32" t="s">
+      <c r="N15" s="41" t="s">
         <v>51</v>
       </c>
+      <c r="O15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="43">
+        <v>43988</v>
+      </c>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="14">
         <v>43849</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="22" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="15">
         <v>43919</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33">
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16">
         <v>1.5</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="41" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="O16" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="43">
+        <v>43989</v>
+      </c>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33">
+      <c r="C17" s="41"/>
+      <c r="D17" s="16">
         <f>SUM(D10:D16)</f>
         <v>11</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="16">
         <f>SUM(E10:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="16">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="47">
         <f>SUM(D17:F17)</f>
         <v>11</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="8">
+      <c r="J17" s="41"/>
+      <c r="K17" s="37">
         <f>SUM(K10:K16)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="37">
         <f>SUM(L10:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="37">
         <f>SUM(M10:M16)</f>
         <v>11.5</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="40">
         <f>SUM(K17:M17)</f>
         <v>11.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="O17" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="11">
         <v>43850</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="8">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37">
         <v>3</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="12">
         <v>43920</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="48">
+        <v>43990</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="11">
         <v>43851</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="37">
         <v>3.5</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="12">
         <v>43921</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8">
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37">
         <v>2</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="38" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="O19" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="48">
+        <v>43991</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="11">
         <v>43852</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="37">
         <v>6</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="12">
         <v>43922</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8">
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37">
         <v>4.5</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="38" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="O20" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="48">
+        <v>43992</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="11">
         <v>43853</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="8">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37">
         <v>5</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="37"/>
+      <c r="G21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="12">
         <v>43923</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8">
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37">
         <v>4.5</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="38" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="O21" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="48">
+        <v>43993</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="11">
         <v>43854</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="12">
         <v>43924</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="48">
+        <v>43994</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="11">
         <v>43855</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="H23" s="22" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="12">
         <v>43925</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8">
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37">
         <v>1</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="O23" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="48">
+        <v>43995</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="11">
         <v>43856</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="H24" s="22" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="12">
         <v>43926</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8">
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37">
         <v>3</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="38" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="O24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="48">
+        <v>43996</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="8">
+      <c r="C25" s="38"/>
+      <c r="D25" s="37">
         <f>SUM(D18:D24)</f>
         <v>12.5</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="37">
         <f>SUM(E18:E24)</f>
         <v>5</v>
       </c>
-      <c r="G25" s="29">
+      <c r="F25" s="37"/>
+      <c r="G25" s="40">
         <f>SUM(D25:F25)</f>
         <v>17.5</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8">
+      <c r="J25" s="38"/>
+      <c r="K25" s="37">
         <f>SUM(K18:K24)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="37">
         <f>SUM(L18:L24)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="37">
         <f>SUM(M18:M24)</f>
         <v>15</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="40">
         <f>SUM(K25:M25)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="O25" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="14">
         <v>43857</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16">
         <v>1.5</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="15">
         <v>43927</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33">
+      <c r="K26" s="16"/>
+      <c r="L26" s="16">
         <v>1</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="16">
         <v>2</v>
       </c>
-      <c r="N26" s="34" t="s">
+      <c r="N26" s="42" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="O26" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="71">
+        <v>43997</v>
+      </c>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+    </row>
+    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="14">
         <v>43858</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="33">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16">
         <v>4.5</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="34" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="15">
         <v>43928</v>
       </c>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="33">
+      <c r="K27" s="16"/>
+      <c r="L27" s="16">
         <v>3</v>
       </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="34" t="s">
+      <c r="M27" s="16"/>
+      <c r="N27" s="42" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="O27" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="71">
+        <v>43998</v>
+      </c>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+    </row>
+    <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="14">
         <v>43859</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="22" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="15">
         <v>43929</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33">
+      <c r="K28" s="16"/>
+      <c r="L28" s="16">
         <v>3.5</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="16">
         <v>2.5</v>
       </c>
-      <c r="N28" s="34" t="s">
+      <c r="N28" s="42" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="O28" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="71">
+        <v>43999</v>
+      </c>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+    </row>
+    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="14">
         <v>43860</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="22" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="15">
         <v>43930</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33">
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16">
         <v>6</v>
       </c>
-      <c r="N29" s="69" t="s">
+      <c r="N29" s="50" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="O29" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="71">
+        <v>44000</v>
+      </c>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+    </row>
+    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="14">
         <v>43861</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="22" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="15">
         <v>43931</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33">
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16">
         <v>6</v>
       </c>
-      <c r="N30" s="32" t="s">
+      <c r="N30" s="41" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="O30" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" s="71">
+        <v>44001</v>
+      </c>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+    </row>
+    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="14">
         <v>43862</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16">
         <v>3</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="32" t="s">
+      <c r="F31" s="16"/>
+      <c r="G31" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="15">
         <v>43932</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="32"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="J31" s="41"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" s="71">
+        <v>44002</v>
+      </c>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+    </row>
+    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="14">
         <v>43863</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16">
         <v>3</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="32" t="s">
+      <c r="F32" s="16"/>
+      <c r="G32" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="15">
         <v>43933</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="32"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="J32" s="41"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="71">
+        <v>44003</v>
+      </c>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33">
+      <c r="C33" s="41"/>
+      <c r="D33" s="16">
         <f>SUM(D26:D32)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="16">
         <f>SUM(E26:E32)</f>
         <v>12</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="16">
         <v>0</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="47">
         <f>SUM(D33:F33)</f>
         <v>12</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="8">
+      <c r="J33" s="41"/>
+      <c r="K33" s="37">
         <f>SUM(K26:K32)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="37">
         <f>SUM(L26:L32)</f>
         <v>7.5</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="37">
         <f>SUM(M26:M32)</f>
         <v>16.5</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="40">
         <f>SUM(K33:M33)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="O33" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="P33" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="11">
         <v>43864</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="8">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37">
         <v>2</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="37"/>
+      <c r="G34" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="12">
         <v>43934</v>
       </c>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8">
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37">
         <v>5</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="O34" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="48">
+        <v>44004</v>
+      </c>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="11">
         <v>43865</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="8">
+      <c r="D35" s="37"/>
+      <c r="E35" s="37">
         <v>3</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="37"/>
+      <c r="G35" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="12">
         <v>43935</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8">
+      <c r="K35" s="37"/>
+      <c r="L35" s="37">
         <v>1</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="37">
         <v>2.5</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" s="38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="O35" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="48">
+        <v>44005</v>
+      </c>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="11">
         <v>43866</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="8">
+      <c r="D36" s="37"/>
+      <c r="E36" s="37">
         <v>6</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="37"/>
+      <c r="G36" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="12">
         <v>43936</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8">
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37">
         <v>2</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" s="38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="O36" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="48">
+        <v>44006</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+    </row>
+    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="11">
         <v>43867</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="8">
+      <c r="D37" s="37"/>
+      <c r="E37" s="37">
         <v>5</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="37"/>
+      <c r="G37" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="12">
         <v>43937</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="37">
         <v>3.5</v>
       </c>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="7" t="s">
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="38" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="O37" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="48">
+        <v>44007</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+    </row>
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="11">
         <v>43868</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="8">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37">
         <v>1</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="F38" s="37"/>
+      <c r="G38" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="12">
         <v>43938</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="37">
         <v>3.5</v>
       </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="7" t="s">
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="38" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="O38" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="48">
+        <v>44008</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="11">
         <v>43869</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="8">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37">
         <v>2</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="F39" s="37"/>
+      <c r="G39" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="12">
         <v>43939</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="37">
         <v>2</v>
       </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7" t="s">
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="38" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="O39" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P39" s="48">
+        <v>44009</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="11">
         <v>43870</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="8">
+      <c r="D40" s="37"/>
+      <c r="E40" s="37">
         <v>3.5</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="F40" s="37"/>
+      <c r="G40" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="12">
         <v>43940</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="37">
         <v>1</v>
       </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="7" t="s">
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="38" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="O40" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" s="48">
+        <v>44010</v>
+      </c>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="8">
+      <c r="C41" s="38"/>
+      <c r="D41" s="37">
         <f>SUM(D34:D40)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="37">
         <f>SUM(E34:E40)</f>
         <v>22.5</v>
       </c>
-      <c r="G41" s="29">
+      <c r="F41" s="37"/>
+      <c r="G41" s="40">
         <f>SUM(D41:F41)</f>
         <v>22.5</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="8">
+      <c r="J41" s="38"/>
+      <c r="K41" s="37">
         <f>SUM(K34:K40)</f>
         <v>10</v>
       </c>
-      <c r="L41" s="8">
+      <c r="L41" s="37">
         <f>SUM(L34:L40)</f>
         <v>1</v>
       </c>
-      <c r="M41" s="8">
+      <c r="M41" s="37">
         <f>SUM(M34:M40)</f>
         <v>9.5</v>
       </c>
-      <c r="N41" s="29">
+      <c r="N41" s="40">
         <f>SUM(K41:M41)</f>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="O41" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="P41" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="14">
         <v>43871</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16">
         <v>3.5</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34" t="s">
+      <c r="F42" s="16"/>
+      <c r="G42" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I42" s="15">
         <v>43941</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="J42" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="16">
         <v>1</v>
       </c>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="34"/>
-    </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="71">
+        <v>44011</v>
+      </c>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+    </row>
+    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="14">
         <v>43872</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="22" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="15">
         <v>43942</v>
       </c>
-      <c r="J43" s="32" t="s">
+      <c r="J43" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="16">
         <v>4.5</v>
       </c>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="34" t="s">
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="42" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="O43" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="71">
+        <v>44012</v>
+      </c>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+    </row>
+    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="14">
         <v>43873</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33">
+      <c r="D44" s="16"/>
+      <c r="E44" s="16">
         <v>3</v>
       </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="34" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="15">
         <v>43943</v>
       </c>
-      <c r="J44" s="32" t="s">
+      <c r="J44" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="16">
         <v>1</v>
       </c>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="34" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="42" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="O44" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="71">
+        <v>44013</v>
+      </c>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+    </row>
+    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="14">
         <v>43874</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16">
         <v>4.5</v>
       </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="15">
         <v>43944</v>
       </c>
-      <c r="J45" s="32" t="s">
+      <c r="J45" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="16">
         <v>2</v>
       </c>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="34" t="s">
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="42" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="O45" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="71">
+        <v>44014</v>
+      </c>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+    </row>
+    <row r="46" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="14">
         <v>43875</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="22" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I46" s="15">
         <v>43945</v>
       </c>
-      <c r="J46" s="32" t="s">
+      <c r="J46" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="16">
         <v>6</v>
       </c>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="32" t="s">
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="41" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="O46" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" s="71">
+        <v>44015</v>
+      </c>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+    </row>
+    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="14">
         <v>43876</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="22" t="s">
+      <c r="C47" s="41"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="15">
         <v>43946</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J47" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="16">
         <v>3</v>
       </c>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="32" t="s">
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="41" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="O47" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" s="71">
+        <v>44016</v>
+      </c>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+    </row>
+    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="14">
         <v>43877</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16">
         <v>2.5</v>
       </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="32" t="s">
+      <c r="F48" s="16"/>
+      <c r="G48" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="15">
         <v>43947</v>
       </c>
-      <c r="J48" s="32" t="s">
+      <c r="J48" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="16">
         <v>1</v>
       </c>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="32" t="s">
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="41" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="O48" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" s="71">
+        <v>44017</v>
+      </c>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33">
+      <c r="C49" s="41"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16">
         <f>SUM(E42:E48)</f>
         <v>13.5</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="36">
+      <c r="F49" s="16"/>
+      <c r="G49" s="47">
         <f>SUM(D49,E49,F49)</f>
         <v>13.5</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I49" s="35" t="s">
+      <c r="I49" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="32"/>
-      <c r="K49" s="8">
+      <c r="J49" s="41"/>
+      <c r="K49" s="37">
         <f>SUM(K42:K48)</f>
         <v>18.5</v>
       </c>
-      <c r="L49" s="8">
+      <c r="L49" s="37">
         <f>SUM(L42:L48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="8">
+      <c r="M49" s="37">
         <f>SUM(M42:M48)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="29">
+      <c r="N49" s="40">
         <f>SUM(K49:M49)</f>
         <v>18.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="O49" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="P49" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+    </row>
+    <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="11">
         <v>43878</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="8">
+      <c r="D50" s="37"/>
+      <c r="E50" s="37">
         <v>2</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="F50" s="37"/>
+      <c r="G50" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I50" s="25">
+      <c r="I50" s="12">
         <v>43948</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="37">
         <v>6</v>
       </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="7" t="s">
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="38" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="O50" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="48">
+        <v>44018</v>
+      </c>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+    </row>
+    <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="11">
         <v>43879</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E51" s="8">
+      <c r="D51" s="37"/>
+      <c r="E51" s="37">
         <v>5</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="F51" s="37"/>
+      <c r="G51" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I51" s="25">
+      <c r="I51" s="12">
         <v>43949</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="37">
         <v>5.75</v>
       </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="7" t="s">
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="38" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="O51" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="48">
+        <v>44019</v>
+      </c>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+    </row>
+    <row r="52" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="11">
         <v>43880</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="8">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37">
         <v>4.5</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="F52" s="37"/>
+      <c r="G52" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="25">
+      <c r="I52" s="12">
         <v>43950</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="37">
         <v>6</v>
       </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="7" t="s">
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="38" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="O52" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P52" s="48">
+        <v>44020</v>
+      </c>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+    </row>
+    <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="11">
         <v>43881</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="8">
+      <c r="D53" s="37"/>
+      <c r="E53" s="37">
         <v>3</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="F53" s="37"/>
+      <c r="G53" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I53" s="12">
         <v>43951</v>
       </c>
-      <c r="J53" s="41" t="s">
+      <c r="J53" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="37">
         <v>4.25</v>
       </c>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="7" t="s">
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="O53" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" s="48">
+        <v>44021</v>
+      </c>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+    </row>
+    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="23">
+      <c r="B54" s="11">
         <v>43882</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E54" s="8">
+      <c r="D54" s="37"/>
+      <c r="E54" s="37">
         <v>5</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="F54" s="37"/>
+      <c r="G54" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I54" s="25">
+      <c r="I54" s="12">
         <v>43952</v>
       </c>
-      <c r="J54" s="41" t="s">
+      <c r="J54" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="37">
         <v>1</v>
       </c>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="7" t="s">
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="38" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="O54" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P54" s="48">
+        <v>44022</v>
+      </c>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="42">
+      <c r="B55" s="17">
         <v>43883</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="44">
+      <c r="D55" s="53">
         <v>1</v>
       </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45" t="s">
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I55" s="12">
         <v>43953</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="45"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="J55" s="52"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P55" s="48">
+        <v>44023</v>
+      </c>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="11">
         <v>43884</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="H56" s="22" t="s">
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="25">
+      <c r="I56" s="12">
         <v>43954</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="37">
         <v>1.5</v>
       </c>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="7" t="s">
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="O56" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" s="48">
+        <v>44024</v>
+      </c>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="8">
+      <c r="C57" s="38"/>
+      <c r="D57" s="37">
         <f>SUM(D50:D56)</f>
         <v>1</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="37">
         <f>SUM(E50:E56)</f>
         <v>19.5</v>
       </c>
-      <c r="G57" s="29">
+      <c r="F57" s="37"/>
+      <c r="G57" s="40">
         <f>SUM(D57:F57)</f>
         <v>20.5</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H57" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="8">
+      <c r="J57" s="38"/>
+      <c r="K57" s="37">
         <f>SUM(K50:K56)</f>
         <v>24.5</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="37">
         <f>SUM(L50:L56)</f>
         <v>0</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="37">
         <f>SUM(M50:M56)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="29">
+      <c r="N57" s="40">
         <f>SUM(K57:M57)</f>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="O57" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="P57" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="14">
         <v>43885</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="16">
         <v>1.5</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33">
+      <c r="E58" s="16"/>
+      <c r="F58" s="16">
         <v>1.5</v>
       </c>
-      <c r="G58" s="34" t="s">
+      <c r="G58" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="35">
+      <c r="I58" s="15">
         <v>43955</v>
       </c>
-      <c r="J58" s="32" t="s">
+      <c r="J58" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K58" s="16">
+        <v>4</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="O58" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" s="71">
+        <v>44025</v>
+      </c>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+    </row>
+    <row r="59" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="14">
+        <v>43886</v>
+      </c>
+      <c r="C59" s="41"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="16"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" s="15">
+        <v>43956</v>
+      </c>
+      <c r="J59" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="K59" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="O59" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="71">
+        <v>44026</v>
+      </c>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+    </row>
+    <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="14">
+        <v>43887</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="16">
         <v>1</v>
       </c>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="31">
-        <v>43886</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33">
+      <c r="E60" s="16">
         <v>0.5</v>
       </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="35">
-        <v>43956</v>
-      </c>
-      <c r="J59" s="32"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="34"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="F60" s="16"/>
+      <c r="G60" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="31">
-        <v>43887</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33">
-        <v>1</v>
-      </c>
-      <c r="E60" s="33">
+      <c r="I60" s="15">
+        <v>43957</v>
+      </c>
+      <c r="J60" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="K60" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="O60" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P60" s="71">
+        <v>44027</v>
+      </c>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+    </row>
+    <row r="61" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="14">
+        <v>43888</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="E61" s="16">
         <v>0.5</v>
       </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I60" s="35">
-        <v>43957</v>
-      </c>
-      <c r="J60" s="32"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="34"/>
-    </row>
-    <row r="61" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="F61" s="16"/>
+      <c r="G61" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="31">
-        <v>43888</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="E61" s="33">
-        <v>0.5</v>
-      </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H61" s="22" t="s">
+      <c r="I61" s="15">
+        <v>43958</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="K61" s="16">
+        <v>4</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="O61" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I61" s="35">
-        <v>43958</v>
-      </c>
-      <c r="J61" s="32"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="40"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="P61" s="71">
+        <v>44028</v>
+      </c>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="14">
         <v>43889</v>
       </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="22" t="s">
+      <c r="C62" s="41"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I62" s="35">
+      <c r="I62" s="15">
         <v>43959</v>
       </c>
-      <c r="J62" s="32"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="32"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="J62" s="41"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="O62" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P62" s="71">
+        <v>44029</v>
+      </c>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="14">
         <v>43890</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="22" t="s">
+      <c r="C63" s="41"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I63" s="35">
+      <c r="I63" s="15">
         <v>43960</v>
       </c>
-      <c r="J63" s="32"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="32"/>
-    </row>
-    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="J63" s="41"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="O63" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P63" s="71">
+        <v>44030</v>
+      </c>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+    </row>
+    <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="14">
         <v>43891</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="33">
+      <c r="D64" s="16">
         <v>3</v>
       </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="32" t="s">
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H64" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="15">
         <v>43961</v>
       </c>
-      <c r="J64" s="32"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="32"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="J64" s="41"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="O64" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" s="71">
+        <v>44031</v>
+      </c>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48">
+      <c r="C65" s="55"/>
+      <c r="D65" s="56">
         <f>SUM(D58:D64)</f>
         <v>9</v>
       </c>
-      <c r="E65" s="48">
+      <c r="E65" s="56">
         <f>SUM(E58:E64)</f>
         <v>1.5</v>
       </c>
-      <c r="F65" s="48">
+      <c r="F65" s="56">
         <f>SUM(F58:F64)</f>
         <v>1.5</v>
       </c>
-      <c r="G65" s="49">
+      <c r="G65" s="57">
         <f>SUM(D65:F65)</f>
         <v>12</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H65" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="I65" s="50" t="s">
+      <c r="I65" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J65" s="47"/>
-      <c r="K65" s="8">
+      <c r="J65" s="55"/>
+      <c r="K65" s="37">
         <f>SUM(K58:K64)</f>
-        <v>1</v>
-      </c>
-      <c r="L65" s="8">
+        <v>15</v>
+      </c>
+      <c r="L65" s="37">
         <f>SUM(L58:L64)</f>
         <v>0</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="37">
         <f>SUM(M58:M64)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="29">
+      <c r="N65" s="40">
         <f>SUM(K65:M65)</f>
+        <v>15</v>
+      </c>
+      <c r="O65" s="39"/>
+      <c r="P65" s="71"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+    </row>
+    <row r="66" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="11">
+        <v>43892</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="12">
+        <v>43962</v>
+      </c>
+      <c r="J66" s="36"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O66" s="72"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="74"/>
+      <c r="S66" s="74"/>
+      <c r="T66" s="74"/>
+      <c r="U66" s="74"/>
+    </row>
+    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" s="11">
+        <v>43893</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="37">
+        <v>4.5</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="12">
+        <v>43963</v>
+      </c>
+      <c r="J67" s="36"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" s="72"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="74"/>
+      <c r="S67" s="74"/>
+      <c r="T67" s="74"/>
+      <c r="U67" s="74"/>
+    </row>
+    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="11">
+        <v>43894</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="37">
+        <v>4</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="12">
+        <v>43964</v>
+      </c>
+      <c r="J68" s="36"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" s="72"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="74"/>
+      <c r="S68" s="74"/>
+      <c r="T68" s="74"/>
+      <c r="U68" s="74"/>
+    </row>
+    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="11">
+        <v>43895</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="37">
+        <v>5</v>
+      </c>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" s="12">
+        <v>43965</v>
+      </c>
+      <c r="J69" s="36"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" s="72"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="74"/>
+      <c r="S69" s="74"/>
+      <c r="T69" s="74"/>
+      <c r="U69" s="74"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="11">
+        <v>43896</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="23">
-        <v>43892</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I66" s="25">
-        <v>43962</v>
-      </c>
-      <c r="J66" s="24"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="7"/>
-    </row>
-    <row r="67" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" s="23">
-        <v>43893</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" s="25">
-        <v>43963</v>
-      </c>
-      <c r="J67" s="24"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="7"/>
-    </row>
-    <row r="68" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="23">
-        <v>43894</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="8">
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I70" s="12">
+        <v>43966</v>
+      </c>
+      <c r="J70" s="36"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" s="72"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="74"/>
+      <c r="T70" s="74"/>
+      <c r="U70" s="74"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="11">
+        <v>43897</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="12">
+        <v>43967</v>
+      </c>
+      <c r="J71" s="38"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" s="72"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="74"/>
+      <c r="S71" s="74"/>
+      <c r="T71" s="74"/>
+      <c r="U71" s="74"/>
+    </row>
+    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="11">
+        <v>43898</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="37">
         <v>4</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I68" s="25">
-        <v>43964</v>
-      </c>
-      <c r="J68" s="24"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="7"/>
-    </row>
-    <row r="69" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="23">
-        <v>43895</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" s="8">
-        <v>5</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I69" s="25">
-        <v>43965</v>
-      </c>
-      <c r="J69" s="24"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="7"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="23">
-        <v>43896</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" s="8">
-        <v>1</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I70" s="25">
-        <v>43966</v>
-      </c>
-      <c r="J70" s="24"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="7"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="23">
-        <v>43897</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D71" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I71" s="25">
-        <v>43967</v>
-      </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="7"/>
-    </row>
-    <row r="72" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H72" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="23">
-        <v>43898</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="8">
-        <v>4</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I72" s="25">
+      <c r="I72" s="12">
         <v>43968</v>
       </c>
-      <c r="J72" s="24"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="7"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="J72" s="36"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="O72" s="72"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="74"/>
+      <c r="S72" s="74"/>
+      <c r="T72" s="74"/>
+      <c r="U72" s="74"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D73" s="8">
+      <c r="C73" s="38"/>
+      <c r="D73" s="37">
         <f>SUM(D66:D72)</f>
         <v>24.5</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="37">
         <f>SUM(E66:E72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="37">
         <f>SUM(F66:F72)</f>
         <v>0</v>
       </c>
-      <c r="G73" s="29">
+      <c r="G73" s="40">
         <f>SUM(D73:F73)</f>
         <v>24.5</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="H73" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="I73" s="30" t="s">
+      <c r="I73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="8">
+      <c r="J73" s="38"/>
+      <c r="K73" s="37">
         <f>SUM(K66:K72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L73" s="37">
         <f>SUM(L66:L72)</f>
         <v>0</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M73" s="37">
         <f>SUM(M66:M72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="29">
+      <c r="N73" s="40">
         <f>SUM(K73:M73)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="O73" s="75"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="74"/>
+      <c r="S73" s="74"/>
+      <c r="T73" s="74"/>
+      <c r="U73" s="74"/>
+    </row>
+    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="14">
         <v>43899</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D74" s="16">
         <v>4</v>
       </c>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="34" t="s">
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I74" s="35">
+      <c r="I74" s="15">
         <v>43969</v>
       </c>
-      <c r="J74" s="32"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="34"/>
-    </row>
-    <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="J74" s="41"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="72"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="74"/>
+      <c r="R74" s="74"/>
+      <c r="S74" s="74"/>
+      <c r="T74" s="74"/>
+      <c r="U74" s="74"/>
+    </row>
+    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="51">
+      <c r="B75" s="20">
         <v>43900</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D75" s="16">
         <v>2.5</v>
       </c>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="34" t="s">
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="H75" s="22" t="s">
+      <c r="H75" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="I75" s="35">
+      <c r="I75" s="15">
         <v>43970</v>
       </c>
-      <c r="J75" s="32"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="34"/>
-    </row>
-    <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="J75" s="41"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="72"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="74"/>
+      <c r="R75" s="74"/>
+      <c r="S75" s="74"/>
+      <c r="T75" s="74"/>
+      <c r="U75" s="74"/>
+    </row>
+    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="14">
         <v>43901</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C76" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="33">
+      <c r="D76" s="16">
         <v>4.5</v>
       </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="34" t="s">
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="22" t="s">
+      <c r="H76" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I76" s="35">
+      <c r="I76" s="15">
         <v>43971</v>
       </c>
-      <c r="J76" s="32"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="34"/>
-    </row>
-    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="J76" s="41"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="72"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="74"/>
+      <c r="R76" s="74"/>
+      <c r="S76" s="74"/>
+      <c r="T76" s="74"/>
+      <c r="U76" s="74"/>
+    </row>
+    <row r="77" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="14">
         <v>43902</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="33">
+      <c r="D77" s="16">
         <v>3</v>
       </c>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="34" t="s">
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="H77" s="22" t="s">
+      <c r="H77" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="35">
+      <c r="I77" s="15">
         <v>43972</v>
       </c>
-      <c r="J77" s="32"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="34"/>
-    </row>
-    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="J77" s="41"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="72"/>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="74"/>
+      <c r="S77" s="74"/>
+      <c r="T77" s="74"/>
+      <c r="U77" s="74"/>
+    </row>
+    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="14">
         <v>43903</v>
       </c>
-      <c r="C78" s="32" t="s">
+      <c r="C78" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D78" s="16">
         <v>4</v>
       </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="32" t="s">
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I78" s="35">
+      <c r="I78" s="15">
         <v>43973</v>
       </c>
-      <c r="J78" s="32"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="32"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="J78" s="41"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="72"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="74"/>
+      <c r="S78" s="74"/>
+      <c r="T78" s="74"/>
+      <c r="U78" s="74"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="31">
+      <c r="B79" s="14">
         <v>43904</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="22" t="s">
+      <c r="C79" s="41"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="I79" s="35">
+      <c r="I79" s="15">
         <v>43974</v>
       </c>
-      <c r="J79" s="32"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="32"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="J79" s="41"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="72"/>
+      <c r="P79" s="73"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="74"/>
+      <c r="T79" s="74"/>
+      <c r="U79" s="74"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80" s="14">
         <v>43905</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="22" t="s">
+      <c r="C80" s="41"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I80" s="35">
+      <c r="I80" s="15">
         <v>43975</v>
       </c>
-      <c r="J80" s="32"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="32"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="52"/>
-      <c r="B81" s="31" t="s">
+      <c r="J80" s="41"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="72"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="74"/>
+      <c r="S80" s="74"/>
+      <c r="T80" s="74"/>
+      <c r="U80" s="74"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="58"/>
+      <c r="B81" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33">
+      <c r="C81" s="41"/>
+      <c r="D81" s="16">
         <f>SUM(D74:D80)</f>
         <v>18</v>
       </c>
-      <c r="E81" s="33">
+      <c r="E81" s="16">
         <f>SUM(E74:E80)</f>
         <v>0</v>
       </c>
-      <c r="F81" s="33">
+      <c r="F81" s="16">
         <f>SUM(F74:F80)</f>
         <v>0</v>
       </c>
-      <c r="G81" s="36">
+      <c r="G81" s="47">
         <f>SUM(D81:F81)</f>
         <v>18</v>
       </c>
-      <c r="H81" s="52"/>
-      <c r="I81" s="35" t="s">
+      <c r="H81" s="58"/>
+      <c r="I81" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J81" s="32"/>
-      <c r="K81" s="8">
+      <c r="J81" s="41"/>
+      <c r="K81" s="37">
         <f>SUM(K74:K80)</f>
         <v>0</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L81" s="37">
         <f>SUM(L74:L80)</f>
         <v>0</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M81" s="37">
         <f>SUM(M74:M80)</f>
         <v>0</v>
       </c>
-      <c r="N81" s="29">
+      <c r="N81" s="40">
         <f>SUM(K81:M81)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="57"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="52"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="54"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="57"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="10" t="s">
+      <c r="O81" s="74"/>
+      <c r="P81" s="73"/>
+      <c r="Q81" s="74"/>
+      <c r="R81" s="74"/>
+      <c r="S81" s="74"/>
+      <c r="T81" s="74"/>
+      <c r="U81" s="74"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="59"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="59"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="59"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="F85" s="61" t="s">
+      <c r="F85" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G85" s="58" t="s">
+      <c r="G85" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H85" s="62" t="s">
+      <c r="H85" s="65" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="58" t="s">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="61">
+      <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>152.5</v>
-      </c>
-      <c r="E86" s="61">
+        <v>166.5</v>
+      </c>
+      <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
         <v>85</v>
       </c>
-      <c r="F86" s="61">
+      <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
         <v>64.5</v>
       </c>
-      <c r="G86" s="63">
+      <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>311</v>
-      </c>
-      <c r="H86" s="64">
+        <v>325</v>
+      </c>
+      <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.77749999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="53"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="57"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="53"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="58">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B87" s="60"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B88" s="60"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="22">
         <f>G86*50</f>
-        <v>15550</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="66"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D90" s="8" t="s">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B89" s="27"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D90" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="67">
+      <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.294117647058822</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="8" t="s">
+        <v>18.647540983606557</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="8" t="s">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="7">
         <f>G9</f>
         <v>18.5</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="8">
+      <c r="C96" s="7">
         <f>G17</f>
         <v>11</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C97" s="7">
         <f>G25</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="7">
         <f>G33</f>
         <v>12</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="7">
         <f>G41</f>
         <v>22.5</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="7">
         <f>G49</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7">
         <f>G57</f>
         <v>20.5</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="7">
         <f>G65</f>
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <f>G73</f>
         <v>24.5</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7">
         <f>G81</f>
         <v>18</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="7">
         <f>N9</f>
         <v>17</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7">
         <f>N17</f>
         <v>11.5</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="7">
         <f>N25</f>
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7">
         <f>N33</f>
         <v>24</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7">
         <f>N41</f>
         <v>20.5</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7">
         <f>N49</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="7">
         <f>N57</f>
         <v>24.5</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="7">
         <f>N65</f>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="7">
         <f>N73</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="7">
         <f>N81</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C115" s="8"/>
+      <c r="C115" s="7"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="68">
+      <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>18.294117647058822</v>
+        <v>18.647540983606557</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B81">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I81">
-    <cfRule type="timePeriod" dxfId="0" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="today">
       <formula>FLOOR(I1,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
+      <formula>FLOOR(P1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5415,7 +6429,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125" style="13"/>
+    <col min="1" max="1025" width="11.5703125" style="8"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDDF0A-6F33-49C6-A1D5-A365D9692496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B36447-E085-4CCE-8B82-CE55B0B18B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>10:00 - 12:00 13:00 - 15:00 19:30 - 21:30</t>
+  </si>
+  <si>
+    <t>Database Webhosting</t>
+  </si>
+  <si>
+    <t>10:45 - 13:45</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1531,7 @@
                   <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1534,7 +1540,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.647540983606557</c:v>
+                  <c:v>18.780487804878046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,9 +2460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,7 +5280,7 @@
         <v>222</v>
       </c>
       <c r="K61" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
@@ -5311,12 +5317,16 @@
       <c r="I62" s="15">
         <v>43959</v>
       </c>
-      <c r="J62" s="41"/>
-      <c r="K62" s="16"/>
+      <c r="J62" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="K62" s="16">
+        <v>3</v>
+      </c>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="41" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="O62" s="35" t="s">
         <v>44</v>
@@ -5352,9 +5362,7 @@
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="41" t="s">
-        <v>211</v>
-      </c>
+      <c r="N63" s="41"/>
       <c r="O63" s="35" t="s">
         <v>48</v>
       </c>
@@ -5395,9 +5403,7 @@
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
-      <c r="N64" s="41" t="s">
-        <v>211</v>
-      </c>
+      <c r="N64" s="41"/>
       <c r="O64" s="35" t="s">
         <v>52</v>
       </c>
@@ -5443,7 +5449,7 @@
       <c r="J65" s="55"/>
       <c r="K65" s="37">
         <f>SUM(K58:K64)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L65" s="37">
         <f>SUM(L58:L64)</f>
@@ -5455,7 +5461,7 @@
       </c>
       <c r="N65" s="40">
         <f>SUM(K65:M65)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O65" s="39"/>
       <c r="P65" s="71"/>
@@ -6146,7 +6152,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>166.5</v>
+        <v>171.5</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -6158,11 +6164,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.8125</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6181,7 +6187,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>16250</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6193,7 +6199,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.647540983606557</v>
+        <v>18.780487804878046</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -6363,7 +6369,7 @@
       </c>
       <c r="C112" s="7">
         <f>N65</f>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -6396,7 +6402,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>18.647540983606557</v>
+        <v>18.780487804878046</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B36447-E085-4CCE-8B82-CE55B0B18B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC0D578-7191-4406-847B-537F1E1DEE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -706,7 +706,16 @@
     <t>Database Webhosting</t>
   </si>
   <si>
-    <t>10:45 - 13:45</t>
+    <t>10:45 - 13:45 17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>Database functionality</t>
+  </si>
+  <si>
+    <t>21:30 - 22:30</t>
+  </si>
+  <si>
+    <t>Integrating Database</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1540,7 @@
                   <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1540,7 +1549,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.780487804878046</c:v>
+                  <c:v>18.77016129032258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,8 +2470,8 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,7 +5308,7 @@
       <c r="T61" s="46"/>
       <c r="U61" s="46"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
         <v>44</v>
       </c>
@@ -5321,7 +5330,7 @@
         <v>224</v>
       </c>
       <c r="K62" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
@@ -5358,11 +5367,17 @@
       <c r="I63" s="15">
         <v>43960</v>
       </c>
-      <c r="J63" s="41"/>
-      <c r="K63" s="16"/>
+      <c r="J63" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="K63" s="16">
+        <v>1.5</v>
+      </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="41"/>
+      <c r="N63" s="41" t="s">
+        <v>225</v>
+      </c>
       <c r="O63" s="35" t="s">
         <v>48</v>
       </c>
@@ -5403,7 +5418,9 @@
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
-      <c r="N64" s="41"/>
+      <c r="N64" s="41" t="s">
+        <v>227</v>
+      </c>
       <c r="O64" s="35" t="s">
         <v>52</v>
       </c>
@@ -5449,7 +5466,7 @@
       <c r="J65" s="55"/>
       <c r="K65" s="37">
         <f>SUM(K58:K64)</f>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="L65" s="37">
         <f>SUM(L58:L64)</f>
@@ -5461,7 +5478,7 @@
       </c>
       <c r="N65" s="40">
         <f>SUM(K65:M65)</f>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="O65" s="39"/>
       <c r="P65" s="71"/>
@@ -6152,7 +6169,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>171.5</v>
+        <v>174</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -6164,11 +6181,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>330</v>
+        <v>332.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.82499999999999996</v>
+        <v>0.83125000000000004</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6187,7 +6204,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>16500</v>
+        <v>16625</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6199,7 +6216,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.780487804878046</v>
+        <v>18.77016129032258</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -6369,7 +6386,7 @@
       </c>
       <c r="C112" s="7">
         <f>N65</f>
-        <v>20</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -6402,7 +6419,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>18.780487804878046</v>
+        <v>18.77016129032258</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC0D578-7191-4406-847B-537F1E1DEE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228B0669-3F25-4268-B320-94069F7C2F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="231">
   <si>
     <t>Date</t>
   </si>
@@ -716,6 +716,15 @@
   </si>
   <si>
     <t>Integrating Database</t>
+  </si>
+  <si>
+    <t>16:30 - 19:00</t>
+  </si>
+  <si>
+    <t>Web app</t>
+  </si>
+  <si>
+    <t>10:30 - 11:30 12:00 - 13:30 15:30 - 17:30</t>
   </si>
 </sst>
 </file>
@@ -1540,16 +1549,16 @@
                   <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.77016129032258</c:v>
+                  <c:v>18.861111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,9 +2478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K71" sqref="K70:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5414,8 +5423,12 @@
       <c r="I64" s="15">
         <v>43961</v>
       </c>
-      <c r="J64" s="41"/>
-      <c r="K64" s="16"/>
+      <c r="J64" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="K64" s="16">
+        <v>2.5</v>
+      </c>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="41" t="s">
@@ -5466,7 +5479,7 @@
       <c r="J65" s="55"/>
       <c r="K65" s="37">
         <f>SUM(K58:K64)</f>
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="L65" s="37">
         <f>SUM(L58:L64)</f>
@@ -5478,7 +5491,7 @@
       </c>
       <c r="N65" s="40">
         <f>SUM(K65:M65)</f>
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="O65" s="39"/>
       <c r="P65" s="71"/>
@@ -5488,7 +5501,7 @@
       <c r="T65" s="46"/>
       <c r="U65" s="46"/>
     </row>
-    <row r="66" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
         <v>28</v>
       </c>
@@ -5512,12 +5525,16 @@
       <c r="I66" s="12">
         <v>43962</v>
       </c>
-      <c r="J66" s="36"/>
-      <c r="K66" s="37"/>
+      <c r="J66" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="K66" s="37">
+        <v>4.5</v>
+      </c>
       <c r="L66" s="37"/>
       <c r="M66" s="37"/>
       <c r="N66" s="38" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="O66" s="72"/>
       <c r="P66" s="73"/>
@@ -5794,7 +5811,7 @@
       <c r="J73" s="38"/>
       <c r="K73" s="37">
         <f>SUM(K66:K72)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L73" s="37">
         <f>SUM(L66:L72)</f>
@@ -5806,7 +5823,7 @@
       </c>
       <c r="N73" s="40">
         <f>SUM(K73:M73)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O73" s="75"/>
       <c r="P73" s="73"/>
@@ -6169,7 +6186,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -6181,11 +6198,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>332.5</v>
+        <v>339.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.83125000000000004</v>
+        <v>0.84875</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6204,7 +6221,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>16625</v>
+        <v>16975</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6216,7 +6233,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.77016129032258</v>
+        <v>18.861111111111111</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -6386,7 +6403,7 @@
       </c>
       <c r="C112" s="7">
         <f>N65</f>
-        <v>22.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -6395,7 +6412,7 @@
       </c>
       <c r="C113" s="7">
         <f>N73</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
@@ -6419,7 +6436,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>18.77016129032258</v>
+        <v>18.861111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228B0669-3F25-4268-B320-94069F7C2F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C202A1B-2F0D-4162-B239-DEB43D538F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="248">
   <si>
     <t>Date</t>
   </si>
@@ -673,9 +673,6 @@
     <t>12:00 - 13:30 17:00 - 19:00 20:30 - 21:30</t>
   </si>
   <si>
-    <t xml:space="preserve">Report + Reassess Situation </t>
-  </si>
-  <si>
     <t>Wk22</t>
   </si>
   <si>
@@ -725,18 +722,73 @@
   </si>
   <si>
     <t>10:30 - 11:30 12:00 - 13:30 15:30 - 17:30</t>
+  </si>
+  <si>
+    <t>Web App</t>
+  </si>
+  <si>
+    <t>10:30 - 12:30 14:30 - 17:00 21:00 - 22:00</t>
+  </si>
+  <si>
+    <t>Plotting Matplotlib</t>
+  </si>
+  <si>
+    <t>16:00 - 18:30</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>WebApp Plotting</t>
+  </si>
+  <si>
+    <t>11:00 - 13:30 15:00 - 15:30 20:00 - 23:30</t>
+  </si>
+  <si>
+    <t>11:00 - 13:00 20:00 - 22:00</t>
+  </si>
+  <si>
+    <t>11:30 - 13:30 14:30 - 16:30 17:30 - 18:00 21:00 - 00:00</t>
+  </si>
+  <si>
+    <t>WebApp Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web App Plotting </t>
+  </si>
+  <si>
+    <t>12:00 - 15:00 17:00 - 19:00 21:00 - 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Validation </t>
+  </si>
+  <si>
+    <t>11:30 - 13:00 20:30- 10:30</t>
+  </si>
+  <si>
+    <t>11:15 - 12:45 14:00 - 16:00 20:30 - 22:30</t>
+  </si>
+  <si>
+    <t>Report Introduction + Lit Review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
     <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -789,6 +841,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFD9D9D9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFD9D9D9"/>
       <name val="Calibri"/>
@@ -995,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1217,6 +1276,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1552,13 +1620,13 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>18.861111111111111</c:v>
+                  <c:v>19.651851851851852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,50 +1822,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1209261</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>149087</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2563722</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>101641</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248EAB12-EBDB-4DD1-9A55-E1EBE5039240}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2749826" y="26819087"/>
-          <a:ext cx="4791744" cy="1286054"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2124,18 +2148,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2478,9 +2502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K71" sqref="K70:K71"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,7 +2512,8 @@
     <col min="1" max="1" width="11.5703125" style="67"/>
     <col min="2" max="2" width="11.5703125" style="5"/>
     <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="7"/>
+    <col min="4" max="4" width="11.5703125" style="7"/>
+    <col min="5" max="5" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="57.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="29" style="61" customWidth="1"/>
@@ -2938,7 +2963,7 @@
         <v>17</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P9" s="68" t="s">
         <v>55</v>
@@ -3282,7 +3307,7 @@
         <v>11.5</v>
       </c>
       <c r="O17" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P17" s="48" t="s">
         <v>55</v>
@@ -3637,7 +3662,7 @@
         <v>15</v>
       </c>
       <c r="O25" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P25" s="48"/>
       <c r="Q25" s="5"/>
@@ -3996,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="O33" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P33" s="48" t="s">
         <v>55</v>
@@ -4383,7 +4408,7 @@
         <v>20.5</v>
       </c>
       <c r="O41" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P41" s="48" t="s">
         <v>55</v>
@@ -4745,7 +4770,7 @@
         <v>18.5</v>
       </c>
       <c r="O49" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P49" s="71" t="s">
         <v>55</v>
@@ -5118,7 +5143,7 @@
         <v>24.5</v>
       </c>
       <c r="O57" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P57" s="48" t="s">
         <v>55</v>
@@ -5246,7 +5271,7 @@
         <v>43957</v>
       </c>
       <c r="J60" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K60" s="16">
         <v>3.5</v>
@@ -5295,7 +5320,7 @@
         <v>43958</v>
       </c>
       <c r="J61" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K61" s="16">
         <v>6</v>
@@ -5336,7 +5361,7 @@
         <v>43959</v>
       </c>
       <c r="J62" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K62" s="16">
         <v>4</v>
@@ -5344,7 +5369,7 @@
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O62" s="35" t="s">
         <v>44</v>
@@ -5377,7 +5402,7 @@
         <v>43960</v>
       </c>
       <c r="J63" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K63" s="16">
         <v>1.5</v>
@@ -5385,7 +5410,7 @@
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O63" s="35" t="s">
         <v>48</v>
@@ -5424,7 +5449,7 @@
         <v>43961</v>
       </c>
       <c r="J64" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K64" s="16">
         <v>2.5</v>
@@ -5432,7 +5457,7 @@
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O64" s="35" t="s">
         <v>52</v>
@@ -5526,7 +5551,7 @@
         <v>43962</v>
       </c>
       <c r="J66" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K66" s="37">
         <v>4.5</v>
@@ -5534,7 +5559,7 @@
       <c r="L66" s="37"/>
       <c r="M66" s="37"/>
       <c r="N66" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O66" s="72"/>
       <c r="P66" s="73"/>
@@ -5544,7 +5569,7 @@
       <c r="T66" s="74"/>
       <c r="U66" s="74"/>
     </row>
-    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
         <v>32</v>
       </c>
@@ -5568,12 +5593,16 @@
       <c r="I67" s="12">
         <v>43963</v>
       </c>
-      <c r="J67" s="36"/>
-      <c r="K67" s="37"/>
+      <c r="J67" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K67" s="37">
+        <v>6.5</v>
+      </c>
       <c r="L67" s="37"/>
       <c r="M67" s="37"/>
       <c r="N67" s="38" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="O67" s="72"/>
       <c r="P67" s="73"/>
@@ -5607,12 +5636,16 @@
       <c r="I68" s="12">
         <v>43964</v>
       </c>
-      <c r="J68" s="36"/>
-      <c r="K68" s="37"/>
+      <c r="J68" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" s="37">
+        <v>1.5</v>
+      </c>
       <c r="L68" s="37"/>
       <c r="M68" s="37"/>
       <c r="N68" s="38" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="O68" s="72"/>
       <c r="P68" s="73"/>
@@ -5622,7 +5655,7 @@
       <c r="T68" s="74"/>
       <c r="U68" s="74"/>
     </row>
-    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>40</v>
       </c>
@@ -5646,12 +5679,16 @@
       <c r="I69" s="12">
         <v>43965</v>
       </c>
-      <c r="J69" s="36"/>
-      <c r="K69" s="37"/>
+      <c r="J69" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K69" s="37">
+        <v>6.5</v>
+      </c>
       <c r="L69" s="37"/>
       <c r="M69" s="37"/>
       <c r="N69" s="38" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="O69" s="72"/>
       <c r="P69" s="73"/>
@@ -5661,7 +5698,7 @@
       <c r="T69" s="74"/>
       <c r="U69" s="74"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>44</v>
       </c>
@@ -5685,12 +5722,16 @@
       <c r="I70" s="12">
         <v>43966</v>
       </c>
-      <c r="J70" s="36"/>
-      <c r="K70" s="37"/>
+      <c r="J70" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K70" s="37">
+        <v>4.5</v>
+      </c>
       <c r="L70" s="37"/>
       <c r="M70" s="37"/>
       <c r="N70" s="38" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="O70" s="72"/>
       <c r="P70" s="73"/>
@@ -5700,7 +5741,7 @@
       <c r="T70" s="74"/>
       <c r="U70" s="74"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
         <v>48</v>
       </c>
@@ -5724,12 +5765,16 @@
       <c r="I71" s="12">
         <v>43967</v>
       </c>
-      <c r="J71" s="38"/>
-      <c r="K71" s="37"/>
+      <c r="J71" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="K71" s="37">
+        <v>7.5</v>
+      </c>
       <c r="L71" s="37"/>
       <c r="M71" s="37"/>
       <c r="N71" s="38" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="O71" s="72"/>
       <c r="P71" s="73"/>
@@ -5767,9 +5812,7 @@
       <c r="K72" s="37"/>
       <c r="L72" s="37"/>
       <c r="M72" s="37"/>
-      <c r="N72" s="38" t="s">
-        <v>213</v>
-      </c>
+      <c r="N72" s="38"/>
       <c r="O72" s="72"/>
       <c r="P72" s="73"/>
       <c r="Q72" s="74"/>
@@ -5811,7 +5854,7 @@
       <c r="J73" s="38"/>
       <c r="K73" s="37">
         <f>SUM(K66:K72)</f>
-        <v>4.5</v>
+        <v>31</v>
       </c>
       <c r="L73" s="37">
         <f>SUM(L66:L72)</f>
@@ -5823,7 +5866,7 @@
       </c>
       <c r="N73" s="40">
         <f>SUM(K73:M73)</f>
-        <v>4.5</v>
+        <v>31</v>
       </c>
       <c r="O73" s="75"/>
       <c r="P73" s="73"/>
@@ -5833,7 +5876,7 @@
       <c r="T73" s="74"/>
       <c r="U73" s="74"/>
     </row>
-    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>28</v>
       </c>
@@ -5857,11 +5900,17 @@
       <c r="I74" s="15">
         <v>43969</v>
       </c>
-      <c r="J74" s="41"/>
-      <c r="K74" s="16"/>
+      <c r="J74" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="K74" s="16">
+        <v>8</v>
+      </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="42"/>
+      <c r="N74" s="42" t="s">
+        <v>241</v>
+      </c>
       <c r="O74" s="72"/>
       <c r="P74" s="73"/>
       <c r="Q74" s="74"/>
@@ -5894,11 +5943,17 @@
       <c r="I75" s="15">
         <v>43970</v>
       </c>
-      <c r="J75" s="41"/>
-      <c r="K75" s="16"/>
+      <c r="J75" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="K75" s="16">
+        <v>1.5</v>
+      </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="42"/>
+      <c r="N75" s="42" t="s">
+        <v>244</v>
+      </c>
       <c r="O75" s="72"/>
       <c r="P75" s="73"/>
       <c r="Q75" s="74"/>
@@ -5907,7 +5962,7 @@
       <c r="T75" s="74"/>
       <c r="U75" s="74"/>
     </row>
-    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>36</v>
       </c>
@@ -5931,11 +5986,17 @@
       <c r="I76" s="15">
         <v>43971</v>
       </c>
-      <c r="J76" s="41"/>
-      <c r="K76" s="16"/>
+      <c r="J76" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="K76" s="16">
+        <v>3.5</v>
+      </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
-      <c r="N76" s="42"/>
+      <c r="N76" s="42" t="s">
+        <v>247</v>
+      </c>
       <c r="O76" s="72"/>
       <c r="P76" s="73"/>
       <c r="Q76" s="74"/>
@@ -6109,7 +6170,7 @@
       <c r="J81" s="41"/>
       <c r="K81" s="37">
         <f>SUM(K74:K80)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L81" s="37">
         <f>SUM(L74:L80)</f>
@@ -6121,7 +6182,7 @@
       </c>
       <c r="N81" s="40">
         <f>SUM(K81:M81)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O81" s="74"/>
       <c r="P81" s="73"/>
@@ -6186,7 +6247,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>181</v>
+        <v>220.5</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -6198,11 +6259,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>339.5</v>
+        <v>379</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.84875</v>
+        <v>0.94750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6221,7 +6282,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>16975</v>
+        <v>18950</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6233,7 +6294,15 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>18.861111111111111</v>
+        <v>19.651851851851852</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D93" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93" s="76" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
@@ -6243,6 +6312,12 @@
       <c r="C94" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D94" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="78">
+        <v>44008</v>
+      </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
@@ -6252,6 +6327,12 @@
         <f>G9</f>
         <v>18.5</v>
       </c>
+      <c r="D95" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" s="78">
+        <v>44014</v>
+      </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
@@ -6412,7 +6493,7 @@
       </c>
       <c r="C113" s="7">
         <f>N73</f>
-        <v>4.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
@@ -6421,7 +6502,7 @@
       </c>
       <c r="C114" s="7">
         <f>N81</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -6436,7 +6517,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>18.861111111111111</v>
+        <v>19.651851851851852</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C202A1B-2F0D-4162-B239-DEB43D538F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA90CA2D-F059-4A5E-8B19-94283AFD0286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="250">
   <si>
     <t>Date</t>
   </si>
@@ -772,10 +772,16 @@
     <t>11:30 - 13:00 20:30- 10:30</t>
   </si>
   <si>
-    <t>11:15 - 12:45 14:00 - 16:00 20:30 - 22:30</t>
-  </si>
-  <si>
     <t>Report Introduction + Lit Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:15 - 12:45 14:00 - 16:00 </t>
+  </si>
+  <si>
+    <t>01:00 - 02:00</t>
+  </si>
+  <si>
+    <t>Report: Lit Rev</t>
   </si>
 </sst>
 </file>
@@ -1623,10 +1629,10 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>19.651851851851852</c:v>
+                  <c:v>19.610294117647062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2504,7 +2510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N77" sqref="N77"/>
+      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,7 +5968,7 @@
       <c r="T75" s="74"/>
       <c r="U75" s="74"/>
     </row>
-    <row r="76" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>36</v>
       </c>
@@ -5987,15 +5993,15 @@
         <v>43971</v>
       </c>
       <c r="J76" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="N76" s="42" t="s">
         <v>246</v>
-      </c>
-      <c r="K76" s="16">
-        <v>3.5</v>
-      </c>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="42" t="s">
-        <v>247</v>
       </c>
       <c r="O76" s="72"/>
       <c r="P76" s="73"/>
@@ -6029,11 +6035,17 @@
       <c r="I77" s="15">
         <v>43972</v>
       </c>
-      <c r="J77" s="41"/>
+      <c r="J77" s="41" t="s">
+        <v>248</v>
+      </c>
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="42"/>
+      <c r="M77" s="16">
+        <v>2</v>
+      </c>
+      <c r="N77" s="42" t="s">
+        <v>249</v>
+      </c>
       <c r="O77" s="72"/>
       <c r="P77" s="73"/>
       <c r="Q77" s="74"/>
@@ -6170,7 +6182,7 @@
       <c r="J81" s="41"/>
       <c r="K81" s="37">
         <f>SUM(K74:K80)</f>
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="L81" s="37">
         <f>SUM(L74:L80)</f>
@@ -6178,11 +6190,11 @@
       </c>
       <c r="M81" s="37">
         <f>SUM(M74:M80)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="N81" s="40">
         <f>SUM(K81:M81)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O81" s="74"/>
       <c r="P81" s="73"/>
@@ -6247,7 +6259,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
-        <v>220.5</v>
+        <v>217</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
@@ -6255,15 +6267,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>64.5</v>
+        <v>70</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.94750000000000001</v>
+        <v>0.95250000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6282,7 +6294,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>18950</v>
+        <v>19050</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6294,7 +6306,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>19.651851851851852</v>
+        <v>19.610294117647062</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6502,7 +6514,7 @@
       </c>
       <c r="C114" s="7">
         <f>N81</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -6517,7 +6529,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>19.651851851851852</v>
+        <v>19.610294117647062</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA90CA2D-F059-4A5E-8B19-94283AFD0286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2376E9-470C-4AAB-A270-B2758198EF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -778,10 +778,10 @@
     <t xml:space="preserve">11:15 - 12:45 14:00 - 16:00 </t>
   </si>
   <si>
-    <t>01:00 - 02:00</t>
-  </si>
-  <si>
     <t>Report: Lit Rev</t>
+  </si>
+  <si>
+    <t>01:00 - 02:00 13:00- 15:00 16:30 - 17:30 19:30 - 20:30</t>
   </si>
 </sst>
 </file>
@@ -1629,10 +1629,10 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>19.610294117647062</c:v>
+                  <c:v>19.841911764705884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,8 +2509,8 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6011,7 +6011,7 @@
       <c r="T76" s="74"/>
       <c r="U76" s="74"/>
     </row>
-    <row r="77" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
         <v>40</v>
       </c>
@@ -6036,15 +6036,15 @@
         <v>43972</v>
       </c>
       <c r="J77" s="41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="16">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N77" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O77" s="72"/>
       <c r="P77" s="73"/>
@@ -6190,11 +6190,11 @@
       </c>
       <c r="M81" s="37">
         <f>SUM(M74:M80)</f>
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N81" s="40">
         <f>SUM(K81:M81)</f>
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="O81" s="74"/>
       <c r="P81" s="73"/>
@@ -6267,15 +6267,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>70</v>
+        <v>74.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>381</v>
+        <v>385.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.95250000000000001</v>
+        <v>0.96375</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6294,7 +6294,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>19050</v>
+        <v>19275</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>19.610294117647062</v>
+        <v>19.841911764705884</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="C114" s="7">
         <f>N81</f>
-        <v>15</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>19.610294117647062</v>
+        <v>19.841911764705884</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2376E9-470C-4AAB-A270-B2758198EF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89DDDC3-EA77-411F-9B39-1CC9C4E8A359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="252">
   <si>
     <t>Date</t>
   </si>
@@ -782,6 +782,12 @@
   </si>
   <si>
     <t>01:00 - 02:00 13:00- 15:00 16:30 - 17:30 19:30 - 20:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>06:30 - 08:00 11:00 - 12:30</t>
   </si>
 </sst>
 </file>
@@ -1629,10 +1635,10 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>19.841911764705884</c:v>
+                  <c:v>19.850364963503647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2509,8 +2515,8 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6078,11 +6084,17 @@
       <c r="I78" s="15">
         <v>43973</v>
       </c>
-      <c r="J78" s="41"/>
+      <c r="J78" s="41" t="s">
+        <v>251</v>
+      </c>
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="41"/>
+      <c r="M78" s="16">
+        <v>3</v>
+      </c>
+      <c r="N78" s="41" t="s">
+        <v>248</v>
+      </c>
       <c r="O78" s="72"/>
       <c r="P78" s="73"/>
       <c r="Q78" s="74"/>
@@ -6190,11 +6202,11 @@
       </c>
       <c r="M81" s="37">
         <f>SUM(M74:M80)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N81" s="40">
         <f>SUM(K81:M81)</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
       <c r="O81" s="74"/>
       <c r="P81" s="73"/>
@@ -6267,15 +6279,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>74.5</v>
+        <v>77.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>385.5</v>
+        <v>388.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.96375</v>
+        <v>0.97124999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6294,7 +6306,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>19275</v>
+        <v>19425</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6306,7 +6318,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>19.841911764705884</v>
+        <v>19.850364963503647</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6355,7 +6367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>68</v>
       </c>
@@ -6364,7 +6376,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>78</v>
       </c>
@@ -6373,7 +6385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
         <v>83</v>
       </c>
@@ -6382,7 +6394,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="7" t="s">
         <v>92</v>
       </c>
@@ -6391,7 +6403,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
         <v>97</v>
       </c>
@@ -6400,7 +6412,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>110</v>
       </c>
@@ -6409,7 +6421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="7" t="s">
         <v>118</v>
       </c>
@@ -6418,7 +6430,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="7" t="s">
         <v>133</v>
       </c>
@@ -6427,7 +6439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
         <v>27</v>
       </c>
@@ -6436,7 +6448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="7" t="s">
         <v>56</v>
       </c>
@@ -6445,7 +6457,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>69</v>
       </c>
@@ -6454,7 +6466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="7" t="s">
         <v>150</v>
       </c>
@@ -6463,7 +6475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
         <v>151</v>
       </c>
@@ -6471,8 +6483,11 @@
         <f>N41</f>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G109" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>152</v>
       </c>
@@ -6481,7 +6496,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>153</v>
       </c>
@@ -6490,7 +6505,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
         <v>154</v>
       </c>
@@ -6514,7 +6529,7 @@
       </c>
       <c r="C114" s="7">
         <f>N81</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -6529,7 +6544,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>19.841911764705884</v>
+        <v>19.850364963503647</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89DDDC3-EA77-411F-9B39-1CC9C4E8A359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32FAE87-3143-44F7-B6C6-6F03CD1F6942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="253">
   <si>
     <t>Date</t>
   </si>
@@ -787,7 +787,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>06:30 - 08:00 11:00 - 12:30</t>
+    <t>06:30 - 08:00 11:00 - 12:30 14:00 - 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20:30 - 21:30</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1638,10 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.5</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>19.850364963503647</c:v>
+                  <c:v>19.85869565217391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,7 +2518,7 @@
   <dimension ref="A1:AMK116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
@@ -6060,7 +6063,7 @@
       <c r="T77" s="74"/>
       <c r="U77" s="74"/>
     </row>
-    <row r="78" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>44</v>
       </c>
@@ -6090,7 +6093,7 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N78" s="41" t="s">
         <v>248</v>
@@ -6121,10 +6124,14 @@
       <c r="I79" s="15">
         <v>43974</v>
       </c>
-      <c r="J79" s="41"/>
+      <c r="J79" s="41" t="s">
+        <v>252</v>
+      </c>
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
+      <c r="M79" s="16">
+        <v>1.5</v>
+      </c>
       <c r="N79" s="41"/>
       <c r="O79" s="72"/>
       <c r="P79" s="73"/>
@@ -6202,11 +6209,11 @@
       </c>
       <c r="M81" s="37">
         <f>SUM(M74:M80)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N81" s="40">
         <f>SUM(K81:M81)</f>
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
       <c r="O81" s="74"/>
       <c r="P81" s="73"/>
@@ -6279,15 +6286,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>77.5</v>
+        <v>80.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>388.5</v>
+        <v>391.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.97124999999999995</v>
+        <v>0.97875000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6306,7 +6313,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>19425</v>
+        <v>19575</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6318,7 +6325,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>19.850364963503647</v>
+        <v>19.85869565217391</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6529,7 +6536,7 @@
       </c>
       <c r="C114" s="7">
         <f>N81</f>
-        <v>22.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -6544,7 +6551,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>19.850364963503647</v>
+        <v>19.85869565217391</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32FAE87-3143-44F7-B6C6-6F03CD1F6942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5B665-1E22-4A40-A152-7FC3A43670C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="256">
   <si>
     <t>Date</t>
   </si>
@@ -791,6 +791,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 20:30 - 21:30</t>
+  </si>
+  <si>
+    <t>Report: Design</t>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+  </si>
+  <si>
+    <t>11:00 - 13:00</t>
   </si>
 </sst>
 </file>
@@ -1638,10 +1647,13 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.5</c:v>
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>19.85869565217391</c:v>
+                  <c:v>19.725000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,9 +2529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,10 +2664,14 @@
       <c r="P2" s="68">
         <v>43976</v>
       </c>
-      <c r="Q2" s="69"/>
+      <c r="Q2" s="69" t="s">
+        <v>255</v>
+      </c>
       <c r="R2" s="69"/>
       <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
+      <c r="T2" s="69">
+        <v>1</v>
+      </c>
       <c r="U2" s="69"/>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -2984,10 +3000,22 @@
         <v>55</v>
       </c>
       <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
+      <c r="R9" s="69">
+        <f>SUM(R2:R8)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="69">
+        <f>SUM(S2:S8)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="69">
+        <f>SUM(T2:T8)</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="69">
+        <f>SUM(R9:T9)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
@@ -6132,7 +6160,9 @@
       <c r="M79" s="16">
         <v>1.5</v>
       </c>
-      <c r="N79" s="41"/>
+      <c r="N79" s="41" t="s">
+        <v>253</v>
+      </c>
       <c r="O79" s="72"/>
       <c r="P79" s="73"/>
       <c r="Q79" s="74"/>
@@ -6159,11 +6189,17 @@
       <c r="I80" s="15">
         <v>43975</v>
       </c>
-      <c r="J80" s="41"/>
+      <c r="J80" s="41" t="s">
+        <v>254</v>
+      </c>
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="41"/>
+      <c r="M80" s="16">
+        <v>2</v>
+      </c>
+      <c r="N80" s="41" t="s">
+        <v>253</v>
+      </c>
       <c r="O80" s="72"/>
       <c r="P80" s="73"/>
       <c r="Q80" s="74"/>
@@ -6209,11 +6245,11 @@
       </c>
       <c r="M81" s="37">
         <f>SUM(M74:M80)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N81" s="40">
         <f>SUM(K81:M81)</f>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="O81" s="74"/>
       <c r="P81" s="73"/>
@@ -6277,24 +6313,24 @@
         <v>147</v>
       </c>
       <c r="D86" s="64">
-        <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81)</f>
+        <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9)</f>
         <v>217</v>
       </c>
       <c r="E86" s="64">
-        <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81)</f>
+        <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9)</f>
         <v>85</v>
       </c>
       <c r="F86" s="64">
-        <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81)</f>
-        <v>80.5</v>
+        <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9)</f>
+        <v>83.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>391.5</v>
+        <v>394.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.97875000000000001</v>
+        <v>0.98624999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6313,7 +6349,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>19575</v>
+        <v>19725</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6325,7 +6361,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>19.85869565217391</v>
+        <v>19.725000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6536,14 +6572,17 @@
       </c>
       <c r="C114" s="7">
         <f>N81</f>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C115" s="7"/>
+      <c r="C115" s="7">
+        <f>U9</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
@@ -6551,7 +6590,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>19.85869565217391</v>
+        <v>19.725000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5B665-1E22-4A40-A152-7FC3A43670C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5941E78A-22F1-4A0D-B359-1CA085BCFD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="256">
   <si>
     <t>Date</t>
   </si>
@@ -799,7 +799,7 @@
     <t>20:00-22:00</t>
   </si>
   <si>
-    <t>11:00 - 13:00</t>
+    <t>11:00 - 13:30 15:00 - 17:00 17:30 - 19:00</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1309,6 +1309,21 @@
     </xf>
     <xf numFmtId="167" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1650,10 +1665,10 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>19.725000000000001</c:v>
+                  <c:v>19.975000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,18 +2190,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2529,9 +2544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,7 +2565,7 @@
     <col min="14" max="14" width="39.42578125" style="61" customWidth="1"/>
     <col min="15" max="15" width="6.7109375" style="61" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" style="63"/>
-    <col min="17" max="17" width="16.28515625" style="61" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="6" customWidth="1"/>
     <col min="18" max="20" width="11.5703125" style="61"/>
     <col min="21" max="21" width="24.85546875" style="61" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" style="33"/>
@@ -2623,7 +2638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>28</v>
       </c>
@@ -2664,15 +2679,17 @@
       <c r="P2" s="68">
         <v>43976</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="79" t="s">
         <v>255</v>
       </c>
       <c r="R2" s="69"/>
       <c r="S2" s="69"/>
       <c r="T2" s="69">
-        <v>1</v>
-      </c>
-      <c r="U2" s="69"/>
+        <v>6</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
@@ -2715,7 +2732,7 @@
       <c r="P3" s="68">
         <v>43977</v>
       </c>
-      <c r="Q3" s="70"/>
+      <c r="Q3" s="80"/>
       <c r="R3" s="70"/>
       <c r="S3" s="70"/>
       <c r="T3" s="69"/>
@@ -2764,7 +2781,7 @@
       <c r="P4" s="68">
         <v>43978</v>
       </c>
-      <c r="Q4" s="69"/>
+      <c r="Q4" s="79"/>
       <c r="R4" s="69"/>
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
@@ -2811,7 +2828,7 @@
       <c r="P5" s="68">
         <v>43979</v>
       </c>
-      <c r="Q5" s="69"/>
+      <c r="Q5" s="79"/>
       <c r="R5" s="69"/>
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
@@ -2856,7 +2873,7 @@
       <c r="P6" s="68">
         <v>43980</v>
       </c>
-      <c r="Q6" s="69"/>
+      <c r="Q6" s="79"/>
       <c r="R6" s="69"/>
       <c r="S6" s="69"/>
       <c r="T6" s="69"/>
@@ -2901,7 +2918,7 @@
       <c r="P7" s="68">
         <v>43981</v>
       </c>
-      <c r="Q7" s="69"/>
+      <c r="Q7" s="79"/>
       <c r="R7" s="69"/>
       <c r="S7" s="69"/>
       <c r="T7" s="69"/>
@@ -2940,7 +2957,7 @@
       <c r="P8" s="68">
         <v>43982</v>
       </c>
-      <c r="Q8" s="69"/>
+      <c r="Q8" s="79"/>
       <c r="R8" s="69"/>
       <c r="S8" s="69"/>
       <c r="T8" s="69"/>
@@ -2999,7 +3016,7 @@
       <c r="P9" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="69"/>
+      <c r="Q9" s="79"/>
       <c r="R9" s="69">
         <f>SUM(R2:R8)</f>
         <v>0</v>
@@ -3010,11 +3027,11 @@
       </c>
       <c r="T9" s="69">
         <f>SUM(T2:T8)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U9" s="69">
         <f>SUM(R9:T9)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3050,7 +3067,7 @@
       <c r="P10" s="43">
         <v>43983</v>
       </c>
-      <c r="Q10" s="44"/>
+      <c r="Q10" s="81"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="45"/>
@@ -3095,7 +3112,7 @@
       <c r="P11" s="43">
         <v>43984</v>
       </c>
-      <c r="Q11" s="46"/>
+      <c r="Q11" s="82"/>
       <c r="R11" s="46"/>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
@@ -3140,7 +3157,7 @@
       <c r="P12" s="43">
         <v>43985</v>
       </c>
-      <c r="Q12" s="46"/>
+      <c r="Q12" s="82"/>
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
@@ -3179,7 +3196,7 @@
       <c r="P13" s="43">
         <v>43986</v>
       </c>
-      <c r="Q13" s="46"/>
+      <c r="Q13" s="82"/>
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
@@ -3214,7 +3231,7 @@
       <c r="P14" s="43">
         <v>43987</v>
       </c>
-      <c r="Q14" s="46"/>
+      <c r="Q14" s="82"/>
       <c r="R14" s="46"/>
       <c r="S14" s="46"/>
       <c r="T14" s="46"/>
@@ -3255,7 +3272,7 @@
       <c r="P15" s="43">
         <v>43988</v>
       </c>
-      <c r="Q15" s="46"/>
+      <c r="Q15" s="82"/>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -3296,7 +3313,7 @@
       <c r="P16" s="43">
         <v>43989</v>
       </c>
-      <c r="Q16" s="46"/>
+      <c r="Q16" s="82"/>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
@@ -3355,7 +3372,7 @@
       <c r="P17" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="38"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -3394,7 +3411,7 @@
       <c r="P18" s="48">
         <v>43990</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="38"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
@@ -3441,7 +3458,7 @@
       <c r="P19" s="48">
         <v>43991</v>
       </c>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="38"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -3488,7 +3505,7 @@
       <c r="P20" s="48">
         <v>43992</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="38"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
@@ -3535,7 +3552,7 @@
       <c r="P21" s="48">
         <v>43993</v>
       </c>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="38"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
@@ -3572,7 +3589,7 @@
       <c r="P22" s="48">
         <v>43994</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="38"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -3613,7 +3630,7 @@
       <c r="P23" s="48">
         <v>43995</v>
       </c>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="38"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
@@ -3654,7 +3671,7 @@
       <c r="P24" s="48">
         <v>43996</v>
       </c>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="38"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
@@ -3708,7 +3725,7 @@
         <v>215</v>
       </c>
       <c r="P25" s="48"/>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="38"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
@@ -3757,7 +3774,7 @@
       <c r="P26" s="71">
         <v>43997</v>
       </c>
-      <c r="Q26" s="46"/>
+      <c r="Q26" s="82"/>
       <c r="R26" s="46"/>
       <c r="S26" s="46"/>
       <c r="T26" s="46"/>
@@ -3804,7 +3821,7 @@
       <c r="P27" s="71">
         <v>43998</v>
       </c>
-      <c r="Q27" s="46"/>
+      <c r="Q27" s="82"/>
       <c r="R27" s="46"/>
       <c r="S27" s="46"/>
       <c r="T27" s="46"/>
@@ -3847,7 +3864,7 @@
       <c r="P28" s="71">
         <v>43999</v>
       </c>
-      <c r="Q28" s="46"/>
+      <c r="Q28" s="82"/>
       <c r="R28" s="46"/>
       <c r="S28" s="46"/>
       <c r="T28" s="46"/>
@@ -3888,7 +3905,7 @@
       <c r="P29" s="71">
         <v>44000</v>
       </c>
-      <c r="Q29" s="46"/>
+      <c r="Q29" s="82"/>
       <c r="R29" s="46"/>
       <c r="S29" s="46"/>
       <c r="T29" s="46"/>
@@ -3929,7 +3946,7 @@
       <c r="P30" s="71">
         <v>44001</v>
       </c>
-      <c r="Q30" s="46"/>
+      <c r="Q30" s="82"/>
       <c r="R30" s="46"/>
       <c r="S30" s="46"/>
       <c r="T30" s="46"/>
@@ -3970,7 +3987,7 @@
       <c r="P31" s="71">
         <v>44002</v>
       </c>
-      <c r="Q31" s="46"/>
+      <c r="Q31" s="82"/>
       <c r="R31" s="46"/>
       <c r="S31" s="46"/>
       <c r="T31" s="46"/>
@@ -4011,7 +4028,7 @@
       <c r="P32" s="71">
         <v>44003</v>
       </c>
-      <c r="Q32" s="46"/>
+      <c r="Q32" s="82"/>
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="46"/>
@@ -4069,7 +4086,7 @@
       <c r="P33" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="38"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
@@ -4116,7 +4133,7 @@
       <c r="P34" s="48">
         <v>44004</v>
       </c>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="38"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
@@ -4165,7 +4182,7 @@
       <c r="P35" s="48">
         <v>44005</v>
       </c>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="38"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
@@ -4212,7 +4229,7 @@
       <c r="P36" s="48">
         <v>44006</v>
       </c>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="38"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -4259,7 +4276,7 @@
       <c r="P37" s="48">
         <v>44007</v>
       </c>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="38"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
@@ -4306,7 +4323,7 @@
       <c r="P38" s="48">
         <v>44008</v>
       </c>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="38"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
@@ -4353,7 +4370,7 @@
       <c r="P39" s="48">
         <v>44009</v>
       </c>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="38"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -4400,7 +4417,7 @@
       <c r="P40" s="48">
         <v>44010</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="38"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
@@ -4456,7 +4473,7 @@
       <c r="P41" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="38"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -4501,7 +4518,7 @@
       <c r="P42" s="71">
         <v>44011</v>
       </c>
-      <c r="Q42" s="46"/>
+      <c r="Q42" s="82"/>
       <c r="R42" s="46"/>
       <c r="S42" s="46"/>
       <c r="T42" s="46"/>
@@ -4542,7 +4559,7 @@
       <c r="P43" s="71">
         <v>44012</v>
       </c>
-      <c r="Q43" s="46"/>
+      <c r="Q43" s="82"/>
       <c r="R43" s="46"/>
       <c r="S43" s="46"/>
       <c r="T43" s="46"/>
@@ -4589,7 +4606,7 @@
       <c r="P44" s="71">
         <v>44013</v>
       </c>
-      <c r="Q44" s="46"/>
+      <c r="Q44" s="82"/>
       <c r="R44" s="46"/>
       <c r="S44" s="46"/>
       <c r="T44" s="46"/>
@@ -4636,7 +4653,7 @@
       <c r="P45" s="71">
         <v>44014</v>
       </c>
-      <c r="Q45" s="46"/>
+      <c r="Q45" s="82"/>
       <c r="R45" s="46"/>
       <c r="S45" s="46"/>
       <c r="T45" s="46"/>
@@ -4677,7 +4694,7 @@
       <c r="P46" s="71">
         <v>44015</v>
       </c>
-      <c r="Q46" s="46"/>
+      <c r="Q46" s="82"/>
       <c r="R46" s="46"/>
       <c r="S46" s="46"/>
       <c r="T46" s="46"/>
@@ -4718,7 +4735,7 @@
       <c r="P47" s="71">
         <v>44016</v>
       </c>
-      <c r="Q47" s="46"/>
+      <c r="Q47" s="82"/>
       <c r="R47" s="46"/>
       <c r="S47" s="46"/>
       <c r="T47" s="46"/>
@@ -4765,7 +4782,7 @@
       <c r="P48" s="71">
         <v>44017</v>
       </c>
-      <c r="Q48" s="46"/>
+      <c r="Q48" s="82"/>
       <c r="R48" s="46"/>
       <c r="S48" s="46"/>
       <c r="T48" s="46"/>
@@ -4818,7 +4835,7 @@
       <c r="P49" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="Q49" s="46"/>
+      <c r="Q49" s="82"/>
       <c r="R49" s="46"/>
       <c r="S49" s="46"/>
       <c r="T49" s="46"/>
@@ -4865,7 +4882,7 @@
       <c r="P50" s="48">
         <v>44018</v>
       </c>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="38"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -4912,7 +4929,7 @@
       <c r="P51" s="48">
         <v>44019</v>
       </c>
-      <c r="Q51" s="5"/>
+      <c r="Q51" s="38"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
@@ -4959,7 +4976,7 @@
       <c r="P52" s="48">
         <v>44020</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="38"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
@@ -5006,7 +5023,7 @@
       <c r="P53" s="48">
         <v>44021</v>
       </c>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="38"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
@@ -5053,7 +5070,7 @@
       <c r="P54" s="48">
         <v>44022</v>
       </c>
-      <c r="Q54" s="5"/>
+      <c r="Q54" s="38"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
@@ -5094,7 +5111,7 @@
       <c r="P55" s="48">
         <v>44023</v>
       </c>
-      <c r="Q55" s="5"/>
+      <c r="Q55" s="38"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
@@ -5135,7 +5152,7 @@
       <c r="P56" s="48">
         <v>44024</v>
       </c>
-      <c r="Q56" s="5"/>
+      <c r="Q56" s="38"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
@@ -5191,7 +5208,7 @@
       <c r="P57" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="Q57" s="5"/>
+      <c r="Q57" s="38"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -5240,7 +5257,7 @@
       <c r="P58" s="71">
         <v>44025</v>
       </c>
-      <c r="Q58" s="46"/>
+      <c r="Q58" s="82"/>
       <c r="R58" s="46"/>
       <c r="S58" s="46"/>
       <c r="T58" s="46"/>
@@ -5283,7 +5300,7 @@
       <c r="P59" s="71">
         <v>44026</v>
       </c>
-      <c r="Q59" s="46"/>
+      <c r="Q59" s="82"/>
       <c r="R59" s="46"/>
       <c r="S59" s="46"/>
       <c r="T59" s="46"/>
@@ -5330,7 +5347,7 @@
       <c r="P60" s="71">
         <v>44027</v>
       </c>
-      <c r="Q60" s="46"/>
+      <c r="Q60" s="82"/>
       <c r="R60" s="46"/>
       <c r="S60" s="46"/>
       <c r="T60" s="46"/>
@@ -5379,7 +5396,7 @@
       <c r="P61" s="71">
         <v>44028</v>
       </c>
-      <c r="Q61" s="46"/>
+      <c r="Q61" s="82"/>
       <c r="R61" s="46"/>
       <c r="S61" s="46"/>
       <c r="T61" s="46"/>
@@ -5420,7 +5437,7 @@
       <c r="P62" s="71">
         <v>44029</v>
       </c>
-      <c r="Q62" s="46"/>
+      <c r="Q62" s="82"/>
       <c r="R62" s="46"/>
       <c r="S62" s="46"/>
       <c r="T62" s="46"/>
@@ -5461,7 +5478,7 @@
       <c r="P63" s="71">
         <v>44030</v>
       </c>
-      <c r="Q63" s="46"/>
+      <c r="Q63" s="82"/>
       <c r="R63" s="46"/>
       <c r="S63" s="46"/>
       <c r="T63" s="46"/>
@@ -5508,7 +5525,7 @@
       <c r="P64" s="71">
         <v>44031</v>
       </c>
-      <c r="Q64" s="46"/>
+      <c r="Q64" s="82"/>
       <c r="R64" s="46"/>
       <c r="S64" s="46"/>
       <c r="T64" s="46"/>
@@ -5563,7 +5580,7 @@
       </c>
       <c r="O65" s="39"/>
       <c r="P65" s="71"/>
-      <c r="Q65" s="46"/>
+      <c r="Q65" s="82"/>
       <c r="R65" s="46"/>
       <c r="S65" s="46"/>
       <c r="T65" s="46"/>
@@ -5606,7 +5623,7 @@
       </c>
       <c r="O66" s="72"/>
       <c r="P66" s="73"/>
-      <c r="Q66" s="74"/>
+      <c r="Q66" s="83"/>
       <c r="R66" s="74"/>
       <c r="S66" s="74"/>
       <c r="T66" s="74"/>
@@ -5649,7 +5666,7 @@
       </c>
       <c r="O67" s="72"/>
       <c r="P67" s="73"/>
-      <c r="Q67" s="74"/>
+      <c r="Q67" s="83"/>
       <c r="R67" s="74"/>
       <c r="S67" s="74"/>
       <c r="T67" s="74"/>
@@ -5692,7 +5709,7 @@
       </c>
       <c r="O68" s="72"/>
       <c r="P68" s="73"/>
-      <c r="Q68" s="74"/>
+      <c r="Q68" s="83"/>
       <c r="R68" s="74"/>
       <c r="S68" s="74"/>
       <c r="T68" s="74"/>
@@ -5735,7 +5752,7 @@
       </c>
       <c r="O69" s="72"/>
       <c r="P69" s="73"/>
-      <c r="Q69" s="74"/>
+      <c r="Q69" s="83"/>
       <c r="R69" s="74"/>
       <c r="S69" s="74"/>
       <c r="T69" s="74"/>
@@ -5778,7 +5795,7 @@
       </c>
       <c r="O70" s="72"/>
       <c r="P70" s="73"/>
-      <c r="Q70" s="74"/>
+      <c r="Q70" s="83"/>
       <c r="R70" s="74"/>
       <c r="S70" s="74"/>
       <c r="T70" s="74"/>
@@ -5821,7 +5838,7 @@
       </c>
       <c r="O71" s="72"/>
       <c r="P71" s="73"/>
-      <c r="Q71" s="74"/>
+      <c r="Q71" s="83"/>
       <c r="R71" s="74"/>
       <c r="S71" s="74"/>
       <c r="T71" s="74"/>
@@ -5858,7 +5875,7 @@
       <c r="N72" s="38"/>
       <c r="O72" s="72"/>
       <c r="P72" s="73"/>
-      <c r="Q72" s="74"/>
+      <c r="Q72" s="83"/>
       <c r="R72" s="74"/>
       <c r="S72" s="74"/>
       <c r="T72" s="74"/>
@@ -5913,7 +5930,7 @@
       </c>
       <c r="O73" s="75"/>
       <c r="P73" s="73"/>
-      <c r="Q73" s="74"/>
+      <c r="Q73" s="83"/>
       <c r="R73" s="74"/>
       <c r="S73" s="74"/>
       <c r="T73" s="74"/>
@@ -5956,7 +5973,7 @@
       </c>
       <c r="O74" s="72"/>
       <c r="P74" s="73"/>
-      <c r="Q74" s="74"/>
+      <c r="Q74" s="83"/>
       <c r="R74" s="74"/>
       <c r="S74" s="74"/>
       <c r="T74" s="74"/>
@@ -5999,7 +6016,7 @@
       </c>
       <c r="O75" s="72"/>
       <c r="P75" s="73"/>
-      <c r="Q75" s="74"/>
+      <c r="Q75" s="83"/>
       <c r="R75" s="74"/>
       <c r="S75" s="74"/>
       <c r="T75" s="74"/>
@@ -6042,7 +6059,7 @@
       </c>
       <c r="O76" s="72"/>
       <c r="P76" s="73"/>
-      <c r="Q76" s="74"/>
+      <c r="Q76" s="83"/>
       <c r="R76" s="74"/>
       <c r="S76" s="74"/>
       <c r="T76" s="74"/>
@@ -6085,7 +6102,7 @@
       </c>
       <c r="O77" s="72"/>
       <c r="P77" s="73"/>
-      <c r="Q77" s="74"/>
+      <c r="Q77" s="83"/>
       <c r="R77" s="74"/>
       <c r="S77" s="74"/>
       <c r="T77" s="74"/>
@@ -6128,7 +6145,7 @@
       </c>
       <c r="O78" s="72"/>
       <c r="P78" s="73"/>
-      <c r="Q78" s="74"/>
+      <c r="Q78" s="83"/>
       <c r="R78" s="74"/>
       <c r="S78" s="74"/>
       <c r="T78" s="74"/>
@@ -6165,7 +6182,7 @@
       </c>
       <c r="O79" s="72"/>
       <c r="P79" s="73"/>
-      <c r="Q79" s="74"/>
+      <c r="Q79" s="83"/>
       <c r="R79" s="74"/>
       <c r="S79" s="74"/>
       <c r="T79" s="74"/>
@@ -6202,7 +6219,7 @@
       </c>
       <c r="O80" s="72"/>
       <c r="P80" s="73"/>
-      <c r="Q80" s="74"/>
+      <c r="Q80" s="83"/>
       <c r="R80" s="74"/>
       <c r="S80" s="74"/>
       <c r="T80" s="74"/>
@@ -6253,7 +6270,7 @@
       </c>
       <c r="O81" s="74"/>
       <c r="P81" s="73"/>
-      <c r="Q81" s="74"/>
+      <c r="Q81" s="83"/>
       <c r="R81" s="74"/>
       <c r="S81" s="74"/>
       <c r="T81" s="74"/>
@@ -6322,15 +6339,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9)</f>
-        <v>83.5</v>
+        <v>88.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>394.5</v>
+        <v>399.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.98624999999999996</v>
+        <v>0.99875000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6349,7 +6366,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>19725</v>
+        <v>19975</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6361,7 +6378,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>19.725000000000001</v>
+        <v>19.975000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6581,7 +6598,7 @@
       </c>
       <c r="C115" s="7">
         <f>U9</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -6590,7 +6607,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>19.725000000000001</v>
+        <v>19.975000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5941E78A-22F1-4A0D-B359-1CA085BCFD33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8C4A0-4841-417E-A1CB-DA002EFCF5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="257">
   <si>
     <t>Date</t>
   </si>
@@ -799,7 +799,10 @@
     <t>20:00-22:00</t>
   </si>
   <si>
-    <t>11:00 - 13:30 15:00 - 17:00 17:30 - 19:00</t>
+    <t>11:00 - 13:30 15:00 - 17:00 17:30 - 19:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00 - 13:00 19:30 - 21:30 </t>
   </si>
 </sst>
 </file>
@@ -1665,10 +1668,10 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>19.975000000000001</c:v>
+                  <c:v>20.056737588652481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2544,9 +2547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2688,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="69"/>
       <c r="T2" s="69">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U2" s="69" t="s">
         <v>253</v>
@@ -2732,11 +2735,17 @@
       <c r="P3" s="68">
         <v>43977</v>
       </c>
-      <c r="Q3" s="80"/>
+      <c r="Q3" s="80" t="s">
+        <v>256</v>
+      </c>
       <c r="R3" s="70"/>
       <c r="S3" s="70"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
+      <c r="T3" s="69">
+        <v>4</v>
+      </c>
+      <c r="U3" s="69" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
@@ -3027,11 +3036,11 @@
       </c>
       <c r="T9" s="69">
         <f>SUM(T2:T8)</f>
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="U9" s="69">
         <f>SUM(R9:T9)</f>
-        <v>6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -6339,15 +6348,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9)</f>
-        <v>88.5</v>
+        <v>93</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>399.5</v>
+        <v>404</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>0.99875000000000003</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6366,7 +6375,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>19975</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6378,7 +6387,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>19.975000000000001</v>
+        <v>20.056737588652481</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6598,7 +6607,7 @@
       </c>
       <c r="C115" s="7">
         <f>U9</f>
-        <v>6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -6607,7 +6616,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>19.975000000000001</v>
+        <v>20.056737588652481</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8C4A0-4841-417E-A1CB-DA002EFCF5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77082B30-BC76-46B9-A6EF-3AA7D6DAF191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="259">
   <si>
     <t>Date</t>
   </si>
@@ -802,7 +802,13 @@
     <t>11:00 - 13:30 15:00 - 17:00 17:30 - 19:30</t>
   </si>
   <si>
-    <t xml:space="preserve">11:00 - 13:00 19:30 - 21:30 </t>
+    <t>11:00 - 13:00 19:30 - 21:30 22:00 - 01:00</t>
+  </si>
+  <si>
+    <t>12:00 - 14:00</t>
+  </si>
+  <si>
+    <t>Improving Tracker</t>
   </si>
 </sst>
 </file>
@@ -1668,10 +1674,10 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.5</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>20.056737588652481</c:v>
+                  <c:v>20.211267605633804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,9 +2553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2700,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
@@ -2741,7 +2747,7 @@
       <c r="R3" s="70"/>
       <c r="S3" s="70"/>
       <c r="T3" s="69">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="U3" s="69" t="s">
         <v>253</v>
@@ -2790,11 +2796,17 @@
       <c r="P4" s="68">
         <v>43978</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="69"/>
+      <c r="Q4" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" s="69">
+        <v>2.5</v>
+      </c>
       <c r="S4" s="69"/>
       <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
+      <c r="U4" s="69" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
@@ -3028,7 +3040,7 @@
       <c r="Q9" s="79"/>
       <c r="R9" s="69">
         <f>SUM(R2:R8)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S9" s="69">
         <f>SUM(S2:S8)</f>
@@ -3036,11 +3048,11 @@
       </c>
       <c r="T9" s="69">
         <f>SUM(T2:T8)</f>
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="U9" s="69">
         <f>SUM(R9:T9)</f>
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -6340,7 +6352,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9)</f>
-        <v>217</v>
+        <v>219.5</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9)</f>
@@ -6348,15 +6360,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9)</f>
-        <v>93</v>
+        <v>96.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.01</v>
+        <v>1.0249999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6375,7 +6387,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>20200</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6387,7 +6399,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.056737588652481</v>
+        <v>20.211267605633804</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6607,7 +6619,7 @@
       </c>
       <c r="C115" s="7">
         <f>U9</f>
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -6616,7 +6628,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>20.056737588652481</v>
+        <v>20.211267605633804</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77082B30-BC76-46B9-A6EF-3AA7D6DAF191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDAFA4-BA8C-4ACD-B534-F457F66A8DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -805,10 +805,10 @@
     <t>11:00 - 13:00 19:30 - 21:30 22:00 - 01:00</t>
   </si>
   <si>
-    <t>12:00 - 14:00</t>
-  </si>
-  <si>
-    <t>Improving Tracker</t>
+    <t>Improving Tracker + Report: Design</t>
+  </si>
+  <si>
+    <t>12:00 - 14:00 18:00 - 20:00 22:00 - 23:00</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1674,10 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.5</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>20.211267605633804</c:v>
+                  <c:v>20.359154929577464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2576,7 @@
     <col min="16" max="16" width="11.5703125" style="63"/>
     <col min="17" max="17" width="16.28515625" style="6" customWidth="1"/>
     <col min="18" max="20" width="11.5703125" style="61"/>
-    <col min="21" max="21" width="24.85546875" style="61" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" style="6" customWidth="1"/>
     <col min="22" max="22" width="11.5703125" style="33"/>
     <col min="23" max="1025" width="11.5703125" style="34"/>
     <col min="1026" max="16384" width="9.140625" style="2"/>
@@ -2696,7 +2696,7 @@
       <c r="T2" s="69">
         <v>6.5</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="79" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       <c r="T3" s="69">
         <v>7.5</v>
       </c>
-      <c r="U3" s="69" t="s">
+      <c r="U3" s="79" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2797,15 +2797,17 @@
         <v>43978</v>
       </c>
       <c r="Q4" s="79" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R4" s="69">
         <v>2.5</v>
       </c>
       <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69" t="s">
-        <v>258</v>
+      <c r="T4" s="69">
+        <v>3</v>
+      </c>
+      <c r="U4" s="79" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2853,7 +2855,7 @@
       <c r="R5" s="69"/>
       <c r="S5" s="69"/>
       <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
+      <c r="U5" s="79"/>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -2898,7 +2900,7 @@
       <c r="R6" s="69"/>
       <c r="S6" s="69"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
+      <c r="U6" s="79"/>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -2943,7 +2945,7 @@
       <c r="R7" s="69"/>
       <c r="S7" s="69"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="79"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -2982,7 +2984,7 @@
       <c r="R8" s="69"/>
       <c r="S8" s="69"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="79"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
@@ -3048,11 +3050,11 @@
       </c>
       <c r="T9" s="69">
         <f>SUM(T2:T8)</f>
-        <v>14</v>
-      </c>
-      <c r="U9" s="69">
+        <v>17</v>
+      </c>
+      <c r="U9" s="79">
         <f>SUM(R9:T9)</f>
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3092,7 +3094,7 @@
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="45"/>
-      <c r="U10" s="44"/>
+      <c r="U10" s="81"/>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
@@ -3137,7 +3139,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
+      <c r="U11" s="82"/>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -3182,7 +3184,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
+      <c r="U12" s="82"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -3221,7 +3223,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
+      <c r="U13" s="82"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -3256,7 +3258,7 @@
       <c r="R14" s="46"/>
       <c r="S14" s="46"/>
       <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
+      <c r="U14" s="82"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
@@ -3297,7 +3299,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
+      <c r="U15" s="82"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
@@ -3338,7 +3340,7 @@
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
+      <c r="U16" s="82"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
@@ -3397,7 +3399,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
+      <c r="U17" s="38"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -3436,7 +3438,7 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="38"/>
     </row>
     <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
@@ -3483,7 +3485,7 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="U19" s="38"/>
     </row>
     <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
@@ -3530,7 +3532,7 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="U20" s="38"/>
     </row>
     <row r="21" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
@@ -3577,7 +3579,7 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="U21" s="38"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
@@ -3614,7 +3616,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="U22" s="38"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
@@ -3655,7 +3657,7 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="U23" s="38"/>
     </row>
     <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
@@ -3696,7 +3698,7 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -3750,7 +3752,7 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="U25" s="38"/>
     </row>
     <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
@@ -3799,7 +3801,7 @@
       <c r="R26" s="46"/>
       <c r="S26" s="46"/>
       <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
+      <c r="U26" s="82"/>
     </row>
     <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
@@ -3846,7 +3848,7 @@
       <c r="R27" s="46"/>
       <c r="S27" s="46"/>
       <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
+      <c r="U27" s="82"/>
     </row>
     <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
@@ -3889,7 +3891,7 @@
       <c r="R28" s="46"/>
       <c r="S28" s="46"/>
       <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
+      <c r="U28" s="82"/>
     </row>
     <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
@@ -3930,7 +3932,7 @@
       <c r="R29" s="46"/>
       <c r="S29" s="46"/>
       <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
+      <c r="U29" s="82"/>
     </row>
     <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
@@ -3971,7 +3973,7 @@
       <c r="R30" s="46"/>
       <c r="S30" s="46"/>
       <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
+      <c r="U30" s="82"/>
     </row>
     <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
@@ -4012,7 +4014,7 @@
       <c r="R31" s="46"/>
       <c r="S31" s="46"/>
       <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
+      <c r="U31" s="82"/>
     </row>
     <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
@@ -4053,7 +4055,7 @@
       <c r="R32" s="46"/>
       <c r="S32" s="46"/>
       <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
+      <c r="U32" s="82"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -4111,7 +4113,7 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
+      <c r="U33" s="38"/>
     </row>
     <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
@@ -4158,7 +4160,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
+      <c r="U34" s="38"/>
     </row>
     <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
@@ -4207,7 +4209,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="U35" s="38"/>
     </row>
     <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
@@ -4254,7 +4256,7 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
+      <c r="U36" s="38"/>
     </row>
     <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
@@ -4301,7 +4303,7 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
+      <c r="U37" s="38"/>
     </row>
     <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
@@ -4348,7 +4350,7 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
+      <c r="U38" s="38"/>
     </row>
     <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
@@ -4395,7 +4397,7 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="U39" s="38"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
@@ -4442,7 +4444,7 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
+      <c r="U40" s="38"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
@@ -4498,7 +4500,7 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
+      <c r="U41" s="38"/>
     </row>
     <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
@@ -4543,7 +4545,7 @@
       <c r="R42" s="46"/>
       <c r="S42" s="46"/>
       <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
+      <c r="U42" s="82"/>
     </row>
     <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
@@ -4584,7 +4586,7 @@
       <c r="R43" s="46"/>
       <c r="S43" s="46"/>
       <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
+      <c r="U43" s="82"/>
     </row>
     <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
@@ -4631,7 +4633,7 @@
       <c r="R44" s="46"/>
       <c r="S44" s="46"/>
       <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
+      <c r="U44" s="82"/>
     </row>
     <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
@@ -4678,7 +4680,7 @@
       <c r="R45" s="46"/>
       <c r="S45" s="46"/>
       <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
+      <c r="U45" s="82"/>
     </row>
     <row r="46" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
@@ -4719,7 +4721,7 @@
       <c r="R46" s="46"/>
       <c r="S46" s="46"/>
       <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
+      <c r="U46" s="82"/>
     </row>
     <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
@@ -4760,7 +4762,7 @@
       <c r="R47" s="46"/>
       <c r="S47" s="46"/>
       <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
+      <c r="U47" s="82"/>
     </row>
     <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
@@ -4807,7 +4809,7 @@
       <c r="R48" s="46"/>
       <c r="S48" s="46"/>
       <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
+      <c r="U48" s="82"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
@@ -4860,7 +4862,7 @@
       <c r="R49" s="46"/>
       <c r="S49" s="46"/>
       <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
+      <c r="U49" s="82"/>
     </row>
     <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
@@ -4907,7 +4909,7 @@
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
+      <c r="U50" s="38"/>
     </row>
     <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
@@ -4954,7 +4956,7 @@
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
+      <c r="U51" s="38"/>
     </row>
     <row r="52" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
@@ -5001,7 +5003,7 @@
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
+      <c r="U52" s="38"/>
     </row>
     <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
@@ -5048,7 +5050,7 @@
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
+      <c r="U53" s="38"/>
     </row>
     <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
@@ -5095,7 +5097,7 @@
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
+      <c r="U54" s="38"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
@@ -5136,7 +5138,7 @@
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
+      <c r="U55" s="38"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
@@ -5177,7 +5179,7 @@
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
+      <c r="U56" s="38"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="39" t="s">
@@ -5233,7 +5235,7 @@
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
+      <c r="U57" s="38"/>
     </row>
     <row r="58" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
@@ -5282,7 +5284,7 @@
       <c r="R58" s="46"/>
       <c r="S58" s="46"/>
       <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="U58" s="82"/>
     </row>
     <row r="59" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
@@ -5325,7 +5327,7 @@
       <c r="R59" s="46"/>
       <c r="S59" s="46"/>
       <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
+      <c r="U59" s="82"/>
     </row>
     <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
@@ -5372,7 +5374,7 @@
       <c r="R60" s="46"/>
       <c r="S60" s="46"/>
       <c r="T60" s="46"/>
-      <c r="U60" s="46"/>
+      <c r="U60" s="82"/>
     </row>
     <row r="61" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
@@ -5421,7 +5423,7 @@
       <c r="R61" s="46"/>
       <c r="S61" s="46"/>
       <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
+      <c r="U61" s="82"/>
     </row>
     <row r="62" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
@@ -5462,7 +5464,7 @@
       <c r="R62" s="46"/>
       <c r="S62" s="46"/>
       <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
+      <c r="U62" s="82"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
@@ -5503,7 +5505,7 @@
       <c r="R63" s="46"/>
       <c r="S63" s="46"/>
       <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
+      <c r="U63" s="82"/>
     </row>
     <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
@@ -5550,7 +5552,7 @@
       <c r="R64" s="46"/>
       <c r="S64" s="46"/>
       <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
+      <c r="U64" s="82"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="39" t="s">
@@ -5605,7 +5607,7 @@
       <c r="R65" s="46"/>
       <c r="S65" s="46"/>
       <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
+      <c r="U65" s="82"/>
     </row>
     <row r="66" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="35" t="s">
@@ -5648,7 +5650,7 @@
       <c r="R66" s="74"/>
       <c r="S66" s="74"/>
       <c r="T66" s="74"/>
-      <c r="U66" s="74"/>
+      <c r="U66" s="83"/>
     </row>
     <row r="67" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="35" t="s">
@@ -5691,7 +5693,7 @@
       <c r="R67" s="74"/>
       <c r="S67" s="74"/>
       <c r="T67" s="74"/>
-      <c r="U67" s="74"/>
+      <c r="U67" s="83"/>
     </row>
     <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
@@ -5734,7 +5736,7 @@
       <c r="R68" s="74"/>
       <c r="S68" s="74"/>
       <c r="T68" s="74"/>
-      <c r="U68" s="74"/>
+      <c r="U68" s="83"/>
     </row>
     <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
@@ -5777,7 +5779,7 @@
       <c r="R69" s="74"/>
       <c r="S69" s="74"/>
       <c r="T69" s="74"/>
-      <c r="U69" s="74"/>
+      <c r="U69" s="83"/>
     </row>
     <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
@@ -5820,7 +5822,7 @@
       <c r="R70" s="74"/>
       <c r="S70" s="74"/>
       <c r="T70" s="74"/>
-      <c r="U70" s="74"/>
+      <c r="U70" s="83"/>
     </row>
     <row r="71" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
@@ -5863,7 +5865,7 @@
       <c r="R71" s="74"/>
       <c r="S71" s="74"/>
       <c r="T71" s="74"/>
-      <c r="U71" s="74"/>
+      <c r="U71" s="83"/>
     </row>
     <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
@@ -5900,7 +5902,7 @@
       <c r="R72" s="74"/>
       <c r="S72" s="74"/>
       <c r="T72" s="74"/>
-      <c r="U72" s="74"/>
+      <c r="U72" s="83"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="39" t="s">
@@ -5955,7 +5957,7 @@
       <c r="R73" s="74"/>
       <c r="S73" s="74"/>
       <c r="T73" s="74"/>
-      <c r="U73" s="74"/>
+      <c r="U73" s="83"/>
     </row>
     <row r="74" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
@@ -5998,7 +6000,7 @@
       <c r="R74" s="74"/>
       <c r="S74" s="74"/>
       <c r="T74" s="74"/>
-      <c r="U74" s="74"/>
+      <c r="U74" s="83"/>
     </row>
     <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
@@ -6041,7 +6043,7 @@
       <c r="R75" s="74"/>
       <c r="S75" s="74"/>
       <c r="T75" s="74"/>
-      <c r="U75" s="74"/>
+      <c r="U75" s="83"/>
     </row>
     <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
@@ -6084,7 +6086,7 @@
       <c r="R76" s="74"/>
       <c r="S76" s="74"/>
       <c r="T76" s="74"/>
-      <c r="U76" s="74"/>
+      <c r="U76" s="83"/>
     </row>
     <row r="77" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
@@ -6127,7 +6129,7 @@
       <c r="R77" s="74"/>
       <c r="S77" s="74"/>
       <c r="T77" s="74"/>
-      <c r="U77" s="74"/>
+      <c r="U77" s="83"/>
     </row>
     <row r="78" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
@@ -6170,7 +6172,7 @@
       <c r="R78" s="74"/>
       <c r="S78" s="74"/>
       <c r="T78" s="74"/>
-      <c r="U78" s="74"/>
+      <c r="U78" s="83"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
@@ -6207,7 +6209,7 @@
       <c r="R79" s="74"/>
       <c r="S79" s="74"/>
       <c r="T79" s="74"/>
-      <c r="U79" s="74"/>
+      <c r="U79" s="83"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
@@ -6244,7 +6246,7 @@
       <c r="R80" s="74"/>
       <c r="S80" s="74"/>
       <c r="T80" s="74"/>
-      <c r="U80" s="74"/>
+      <c r="U80" s="83"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="58"/>
@@ -6295,7 +6297,7 @@
       <c r="R81" s="74"/>
       <c r="S81" s="74"/>
       <c r="T81" s="74"/>
-      <c r="U81" s="74"/>
+      <c r="U81" s="83"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="59"/>
@@ -6360,15 +6362,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9)</f>
-        <v>96.5</v>
+        <v>99.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.0249999999999999</v>
+        <v>1.0325</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6387,7 +6389,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>20500</v>
+        <v>20650</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6399,7 +6401,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.211267605633804</v>
+        <v>20.359154929577464</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6619,7 +6621,7 @@
       </c>
       <c r="C115" s="7">
         <f>U9</f>
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -6628,7 +6630,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>20.211267605633804</v>
+        <v>20.359154929577464</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BDAFA4-BA8C-4ACD-B534-F457F66A8DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92EC5C3-E882-4C07-9538-1CFE2CBD9AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="260">
   <si>
     <t>Date</t>
   </si>
@@ -808,7 +808,10 @@
     <t>Improving Tracker + Report: Design</t>
   </si>
   <si>
-    <t>12:00 - 14:00 18:00 - 20:00 22:00 - 23:00</t>
+    <t>12:00 - 14:30 18:00 - 20:00 22:00 - 23:00</t>
+  </si>
+  <si>
+    <t>Report: Design/Calibration</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1677,10 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>20.359154929577464</c:v>
+                  <c:v>20.363636363636367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,13 +2807,13 @@
       </c>
       <c r="S4" s="69"/>
       <c r="T4" s="69">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U4" s="79" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -2851,11 +2854,17 @@
       <c r="P5" s="68">
         <v>43979</v>
       </c>
-      <c r="Q5" s="79"/>
+      <c r="Q5" s="79" t="s">
+        <v>194</v>
+      </c>
       <c r="R5" s="69"/>
       <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="79"/>
+      <c r="T5" s="69">
+        <v>2.5</v>
+      </c>
+      <c r="U5" s="79" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -3050,11 +3059,11 @@
       </c>
       <c r="T9" s="69">
         <f>SUM(T2:T8)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U9" s="79">
         <f>SUM(R9:T9)</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -6362,15 +6371,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9)</f>
-        <v>99.5</v>
+        <v>102.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.0325</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6389,7 +6398,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>20650</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6401,7 +6410,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.359154929577464</v>
+        <v>20.363636363636367</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6621,7 +6630,7 @@
       </c>
       <c r="C115" s="7">
         <f>U9</f>
-        <v>19.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -6630,7 +6639,7 @@
       </c>
       <c r="C116" s="29">
         <f ca="1">E90</f>
-        <v>20.359154929577464</v>
+        <v>20.363636363636367</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92EC5C3-E882-4C07-9538-1CFE2CBD9AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E3081-9627-4D0C-B5F8-B99AC025FDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="263">
   <si>
     <t>Date</t>
   </si>
@@ -812,6 +812,15 @@
   </si>
   <si>
     <t>Report: Design/Calibration</t>
+  </si>
+  <si>
+    <t>19:00 - 21:30</t>
+  </si>
+  <si>
+    <t>11:00 - 13:00 15:30 - 17:30 20:30 - 21:30 22:00 - 23:00</t>
+  </si>
+  <si>
+    <t>10:30 - 13:00 14:30 - 15:30</t>
   </si>
 </sst>
 </file>
@@ -1474,12 +1483,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:defRPr sz="1300" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="1" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Weekly Totals</a:t>
@@ -1538,9 +1547,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$B$95:$B$116</c:f>
+              <c:f>Sheet2!$B$95:$B$120</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>Wk1</c:v>
                 </c:pt>
@@ -1605,6 +1614,18 @@
                   <c:v>Wk21</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>Wk22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Wk23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Wk24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Wk25</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1612,10 +1633,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$95:$C$116</c:f>
+              <c:f>Sheet2!$C$95:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>18.5</c:v>
                 </c:pt>
@@ -1677,10 +1698,22 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.5</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="0">
-                  <c:v>20.363636363636367</c:v>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0">
+                  <c:v>20.30952380952381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,16 +1877,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>468076</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>79174</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>658575</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>56762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>623429</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>78454</xdr:rowOff>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2554,11 +2587,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK116"/>
+  <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,7 +2888,7 @@
         <v>43979</v>
       </c>
       <c r="Q5" s="79" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="R5" s="69"/>
       <c r="S5" s="69"/>
@@ -2866,7 +2899,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>44</v>
       </c>
@@ -2905,11 +2938,17 @@
       <c r="P6" s="68">
         <v>43980</v>
       </c>
-      <c r="Q6" s="79"/>
+      <c r="Q6" s="79" t="s">
+        <v>261</v>
+      </c>
       <c r="R6" s="69"/>
       <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="79"/>
+      <c r="T6" s="69">
+        <v>5</v>
+      </c>
+      <c r="U6" s="79" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -2953,7 +2992,9 @@
       <c r="Q7" s="79"/>
       <c r="R7" s="69"/>
       <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
+      <c r="T7" s="69">
+        <v>2</v>
+      </c>
       <c r="U7" s="79"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -3059,14 +3100,14 @@
       </c>
       <c r="T9" s="69">
         <f>SUM(T2:T8)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U9" s="79">
         <f>SUM(R9:T9)</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
@@ -3099,11 +3140,17 @@
       <c r="P10" s="43">
         <v>43983</v>
       </c>
-      <c r="Q10" s="81"/>
+      <c r="Q10" s="81" t="s">
+        <v>262</v>
+      </c>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="81"/>
+      <c r="T10" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="U10" s="81" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
@@ -3144,7 +3191,9 @@
       <c r="P11" s="43">
         <v>43984</v>
       </c>
-      <c r="Q11" s="82"/>
+      <c r="Q11" s="82" t="s">
+        <v>250</v>
+      </c>
       <c r="R11" s="46"/>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
@@ -3405,10 +3454,22 @@
         <v>55</v>
       </c>
       <c r="Q17" s="38"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="38"/>
+      <c r="R17" s="5">
+        <f>SUM(R10:R16)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <f>SUM(S10:S16)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <f>SUM(T10:T16)</f>
+        <v>3.5</v>
+      </c>
+      <c r="U17" s="38">
+        <f>SUM(R17:T17)</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
@@ -6362,24 +6423,24 @@
         <v>147</v>
       </c>
       <c r="D86" s="64">
-        <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9)</f>
+        <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9, R17)</f>
         <v>219.5</v>
       </c>
       <c r="E86" s="64">
-        <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9)</f>
+        <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9, S17)</f>
         <v>85</v>
       </c>
       <c r="F86" s="64">
-        <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9)</f>
-        <v>102.5</v>
+        <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9, T17)</f>
+        <v>113</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>416</v>
+        <v>426.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.04</v>
+        <v>1.0662499999999999</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6398,7 +6459,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>20800</v>
+        <v>21325</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6410,7 +6471,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.363636363636367</v>
+        <v>20.30952380952381</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6630,16 +6691,52 @@
       </c>
       <c r="C115" s="7">
         <f>U9</f>
-        <v>22.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C116" s="6">
+        <f>U17</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" s="7">
+        <f>U25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="6">
+        <f>U33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" s="6">
+        <f>U41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="29">
+      <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.363636363636367</v>
+        <v>20.30952380952381</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E3081-9627-4D0C-B5F8-B99AC025FDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD89CF5-BEA2-480B-9A79-ADC55D963907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="266">
   <si>
     <t>Date</t>
   </si>
@@ -821,6 +821,15 @@
   </si>
   <si>
     <t>10:30 - 13:00 14:30 - 15:30</t>
+  </si>
+  <si>
+    <t>Meeting + Report</t>
+  </si>
+  <si>
+    <t>11:00 - 12:30 14:00 - 16:00 22:00 - 00:00</t>
+  </si>
+  <si>
+    <t>12:00 - 14:30 16:00 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1710,7 @@
                   <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>3.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1713,7 +1722,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.30952380952381</c:v>
+                  <c:v>20.412751677852349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,7 +3161,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>32</v>
       </c>
@@ -3192,12 +3201,18 @@
         <v>43984</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>250</v>
-      </c>
-      <c r="R11" s="46"/>
+        <v>264</v>
+      </c>
+      <c r="R11" s="46">
+        <v>1.5</v>
+      </c>
       <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="82"/>
+      <c r="T11" s="46">
+        <v>4</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -3238,11 +3253,17 @@
       <c r="P12" s="43">
         <v>43985</v>
       </c>
-      <c r="Q12" s="82"/>
+      <c r="Q12" s="82" t="s">
+        <v>265</v>
+      </c>
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="82"/>
+      <c r="T12" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="U12" s="82" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -3456,7 +3477,7 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="5">
         <f>SUM(R10:R16)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S17" s="5">
         <f>SUM(S10:S16)</f>
@@ -3464,11 +3485,11 @@
       </c>
       <c r="T17" s="5">
         <f>SUM(T10:T16)</f>
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="U17" s="38">
         <f>SUM(R17:T17)</f>
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6424,7 +6445,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9, R17)</f>
-        <v>219.5</v>
+        <v>221</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9, S17)</f>
@@ -6432,15 +6453,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9, T17)</f>
-        <v>113</v>
+        <v>119.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>426.5</v>
+        <v>434.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.0662499999999999</v>
+        <v>1.0862499999999999</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6459,7 +6480,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>21325</v>
+        <v>21725</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6471,7 +6492,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.30952380952381</v>
+        <v>20.412751677852349</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6700,7 +6721,7 @@
       </c>
       <c r="C116" s="6">
         <f>U17</f>
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -6736,7 +6757,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.30952380952381</v>
+        <v>20.412751677852349</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD89CF5-BEA2-480B-9A79-ADC55D963907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C15084-1447-4AC8-90F7-ACADF79A4540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="265">
   <si>
     <t>Date</t>
   </si>
@@ -827,9 +827,6 @@
   </si>
   <si>
     <t>11:00 - 12:30 14:00 - 16:00 22:00 - 00:00</t>
-  </si>
-  <si>
-    <t>12:00 - 14:30 16:00 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1707,7 @@
                   <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>11.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1722,7 +1719,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.412751677852349</c:v>
+                  <c:v>20.506711409395972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2600,7 +2597,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,12 +3251,12 @@
         <v>43985</v>
       </c>
       <c r="Q12" s="82" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="46">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U12" s="82" t="s">
         <v>26</v>
@@ -3485,11 +3482,11 @@
       </c>
       <c r="T17" s="5">
         <f>SUM(T10:T16)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U17" s="38">
         <f>SUM(R17:T17)</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6453,15 +6450,15 @@
       </c>
       <c r="F86" s="64">
         <f>SUM(F81,F73,F65,F57,F49,F41,F33,F25,F17,F9,M9,M17,M25,M33,M41,M49,M57,M65,M73,M81,T9, T17)</f>
-        <v>119.5</v>
+        <v>121.5</v>
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>434.5</v>
+        <v>436.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.0862499999999999</v>
+        <v>1.0912500000000001</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6480,7 +6477,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>21725</v>
+        <v>21825</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6492,7 +6489,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.412751677852349</v>
+        <v>20.506711409395972</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6721,7 +6718,7 @@
       </c>
       <c r="C116" s="6">
         <f>U17</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -6757,7 +6754,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.412751677852349</v>
+        <v>20.506711409395972</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C15084-1447-4AC8-90F7-ACADF79A4540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B76C5F-4573-4F6B-9C9C-87CC3ED82941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="267">
   <si>
     <t>Date</t>
   </si>
@@ -823,10 +823,16 @@
     <t>10:30 - 13:00 14:30 - 15:30</t>
   </si>
   <si>
-    <t>Meeting + Report</t>
-  </si>
-  <si>
     <t>11:00 - 12:30 14:00 - 16:00 22:00 - 00:00</t>
+  </si>
+  <si>
+    <t>Meeting + Report + Setup File Calibration</t>
+  </si>
+  <si>
+    <t>Report + Config File</t>
+  </si>
+  <si>
+    <t>12:00 - 14:30 16:00 - 18:00 21:00 - 22:00</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1354,6 +1360,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,7 +1716,7 @@
                   <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>13.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1719,7 +1728,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.506711409395972</c:v>
+                  <c:v>20.553691275167786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,7 +2606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11:P11"/>
+      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,7 +3207,7 @@
         <v>43984</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R11" s="46">
         <v>1.5</v>
@@ -3208,7 +3217,7 @@
         <v>4</v>
       </c>
       <c r="U11" s="82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -3250,16 +3259,18 @@
       <c r="P12" s="43">
         <v>43985</v>
       </c>
-      <c r="Q12" s="82" t="s">
-        <v>250</v>
-      </c>
-      <c r="R12" s="46"/>
+      <c r="Q12" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="R12" s="46">
+        <v>1</v>
+      </c>
       <c r="S12" s="46"/>
       <c r="T12" s="46">
         <v>4.5</v>
       </c>
       <c r="U12" s="82" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -3474,7 +3485,7 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="5">
         <f>SUM(R10:R16)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="S17" s="5">
         <f>SUM(S10:S16)</f>
@@ -3486,7 +3497,7 @@
       </c>
       <c r="U17" s="38">
         <f>SUM(R17:T17)</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6442,7 +6453,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9, R17)</f>
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9, S17)</f>
@@ -6454,11 +6465,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>436.5</v>
+        <v>437.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.0912500000000001</v>
+        <v>1.09375</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6477,7 +6488,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>21825</v>
+        <v>21875</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6489,7 +6500,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.506711409395972</v>
+        <v>20.553691275167786</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6718,7 +6729,7 @@
       </c>
       <c r="C116" s="6">
         <f>U17</f>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -6754,7 +6765,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.506711409395972</v>
+        <v>20.553691275167786</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B76C5F-4573-4F6B-9C9C-87CC3ED82941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF60B0-2D54-4ABF-8B7D-A9A11011C4DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="269">
   <si>
     <t>Date</t>
   </si>
@@ -833,6 +833,12 @@
   </si>
   <si>
     <t>12:00 - 14:30 16:00 - 18:00 21:00 - 22:00</t>
+  </si>
+  <si>
+    <t>12:00 - 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config File </t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1722,7 @@
                   <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>14.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1728,7 +1734,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.553691275167786</c:v>
+                  <c:v>20.533333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,7 +2612,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,11 +3312,17 @@
       <c r="P13" s="43">
         <v>43986</v>
       </c>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="46"/>
+      <c r="Q13" s="82" t="s">
+        <v>267</v>
+      </c>
+      <c r="R13" s="46">
+        <v>2.5</v>
+      </c>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
-      <c r="U13" s="82"/>
+      <c r="U13" s="82" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -3485,7 +3497,7 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="5">
         <f>SUM(R10:R16)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="S17" s="5">
         <f>SUM(S10:S16)</f>
@@ -3497,7 +3509,7 @@
       </c>
       <c r="U17" s="38">
         <f>SUM(R17:T17)</f>
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6453,7 +6465,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9, R17)</f>
-        <v>222</v>
+        <v>224.5</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9, S17)</f>
@@ -6465,11 +6477,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>437.5</v>
+        <v>440</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.09375</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6488,7 +6500,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>21875</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6500,7 +6512,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.553691275167786</v>
+        <v>20.533333333333335</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6729,7 +6741,7 @@
       </c>
       <c r="C116" s="6">
         <f>U17</f>
-        <v>14.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -6765,7 +6777,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.553691275167786</v>
+        <v>20.533333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AF60B0-2D54-4ABF-8B7D-A9A11011C4DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F284A-C2A2-48E0-8919-A7A5D65F626E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,10 +835,10 @@
     <t>12:00 - 14:30 16:00 - 18:00 21:00 - 22:00</t>
   </si>
   <si>
-    <t>12:00 - 14:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Config File </t>
+  </si>
+  <si>
+    <t>12:00 - 14:30 18:15 - 18:45 21:00 - 23:00 23:30 - 00:30</t>
   </si>
 </sst>
 </file>
@@ -1364,11 +1364,11 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1722,7 +1722,7 @@
                   <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1734,7 +1734,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.533333333333335</c:v>
+                  <c:v>20.650000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,18 +2256,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2610,9 +2610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3265,7 +3265,7 @@
       <c r="P12" s="43">
         <v>43985</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="84" t="s">
         <v>266</v>
       </c>
       <c r="R12" s="46">
@@ -3279,7 +3279,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>40</v>
       </c>
@@ -3313,15 +3313,15 @@
         <v>43986</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R13" s="46">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
       <c r="U13" s="82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -3497,7 +3497,7 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="5">
         <f>SUM(R10:R16)</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="S17" s="5">
         <f>SUM(S10:S16)</f>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="U17" s="38">
         <f>SUM(R17:T17)</f>
-        <v>17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9, R17)</f>
-        <v>224.5</v>
+        <v>227</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9, S17)</f>
@@ -6477,11 +6477,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>440</v>
+        <v>442.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.1000000000000001</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>22000</v>
+        <v>22125</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.533333333333335</v>
+        <v>20.650000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C116" s="6">
         <f>U17</f>
-        <v>17</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.533333333333335</v>
+        <v>20.650000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F284A-C2A2-48E0-8919-A7A5D65F626E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C559426-91E3-4685-937A-A371C389CAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="271">
   <si>
     <t>Date</t>
   </si>
@@ -835,10 +835,16 @@
     <t>12:00 - 14:30 16:00 - 18:00 21:00 - 22:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Config File </t>
-  </si>
-  <si>
     <t>12:00 - 14:30 18:15 - 18:45 21:00 - 23:00 23:30 - 00:30</t>
+  </si>
+  <si>
+    <t>Config File Integration</t>
+  </si>
+  <si>
+    <t>Config + Calibration</t>
+  </si>
+  <si>
+    <t>12:00 - 14:00 14:30</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1728,7 @@
                   <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>19.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1734,7 +1740,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.650000000000002</c:v>
+                  <c:v>20.493421052631579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,9 +2616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,15 +3319,15 @@
         <v>43986</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R13" s="46">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="S13" s="46"/>
       <c r="T13" s="46"/>
       <c r="U13" s="82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -3359,7 +3365,7 @@
       <c r="T14" s="46"/>
       <c r="U14" s="82"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>48</v>
       </c>
@@ -3394,11 +3400,17 @@
       <c r="P15" s="43">
         <v>43988</v>
       </c>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="46"/>
+      <c r="Q15" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="R15" s="46">
+        <v>2</v>
+      </c>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
-      <c r="U15" s="82"/>
+      <c r="U15" s="82" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
@@ -3497,7 +3509,7 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="5">
         <f>SUM(R10:R16)</f>
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="S17" s="5">
         <f>SUM(S10:S16)</f>
@@ -3509,7 +3521,7 @@
       </c>
       <c r="U17" s="38">
         <f>SUM(R17:T17)</f>
-        <v>19.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6465,7 +6477,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9, R17)</f>
-        <v>227</v>
+        <v>229.5</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9, S17)</f>
@@ -6477,11 +6489,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>442.5</v>
+        <v>445</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.10625</v>
+        <v>1.1125</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6500,7 +6512,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>22125</v>
+        <v>22250</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6512,7 +6524,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.650000000000002</v>
+        <v>20.493421052631579</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6741,7 +6753,7 @@
       </c>
       <c r="C116" s="6">
         <f>U17</f>
-        <v>19.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -6777,7 +6789,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.650000000000002</v>
+        <v>20.493421052631579</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C559426-91E3-4685-937A-A371C389CAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA9FBA-CEB6-4B91-B4B4-19C60FFE02FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="273">
   <si>
     <t>Date</t>
   </si>
@@ -845,6 +845,12 @@
   </si>
   <si>
     <t>12:00 - 14:00 14:30</t>
+  </si>
+  <si>
+    <t>Calibrating Specific scene</t>
+  </si>
+  <si>
+    <t>15:00 - 17:00</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1734,7 @@
                   <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>22</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1740,7 +1746,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.493421052631579</c:v>
+                  <c:v>20.473856209150327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,9 +2622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,7 +3410,7 @@
         <v>270</v>
       </c>
       <c r="R15" s="46">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="S15" s="46"/>
       <c r="T15" s="46"/>
@@ -3447,11 +3453,15 @@
       <c r="P16" s="43">
         <v>43989</v>
       </c>
-      <c r="Q16" s="82"/>
+      <c r="Q16" s="82" t="s">
+        <v>272</v>
+      </c>
       <c r="R16" s="46"/>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
-      <c r="U16" s="82"/>
+      <c r="U16" s="82" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
@@ -3509,7 +3519,7 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="5">
         <f>SUM(R10:R16)</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="S17" s="5">
         <f>SUM(S10:S16)</f>
@@ -3521,7 +3531,7 @@
       </c>
       <c r="U17" s="38">
         <f>SUM(R17:T17)</f>
-        <v>22</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6477,7 +6487,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9, R17)</f>
-        <v>229.5</v>
+        <v>232</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9, S17)</f>
@@ -6489,11 +6499,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>445</v>
+        <v>447.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.1125</v>
+        <v>1.1187499999999999</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6512,7 +6522,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>22250</v>
+        <v>22375</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6524,7 +6534,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.493421052631579</v>
+        <v>20.473856209150327</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6753,7 +6763,7 @@
       </c>
       <c r="C116" s="6">
         <f>U17</f>
-        <v>22</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -6789,7 +6799,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.493421052631579</v>
+        <v>20.473856209150327</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA9FBA-CEB6-4B91-B4B4-19C60FFE02FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5453AC0A-161E-4F35-8A54-413DEFE47A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,7 +850,7 @@
     <t>Calibrating Specific scene</t>
   </si>
   <si>
-    <t>15:00 - 17:00</t>
+    <t>15:00 - 18:30 20:30 - 20:00</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1507,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1734,7 +1741,7 @@
                   <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>24.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1746,14 +1753,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.473856209150327</c:v>
+                  <c:v>20.794117647058822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9DD-450D-AC55-7D0387D3E7B6}"/>
+              <c16:uniqueId val="{00000000-8E41-4BB0-A2B7-E17F5F724986}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1910,27 +1917,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>658575</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>56762</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>297957</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>525876</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8AD8B8-3645-4531-A246-A1F358F41A64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2622,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
     </sheetView>
@@ -3418,7 +3427,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>52</v>
       </c>
@@ -3456,7 +3465,9 @@
       <c r="Q16" s="82" t="s">
         <v>272</v>
       </c>
-      <c r="R16" s="46"/>
+      <c r="R16" s="46">
+        <v>7</v>
+      </c>
       <c r="S16" s="46"/>
       <c r="T16" s="46"/>
       <c r="U16" s="82" t="s">
@@ -3519,7 +3530,7 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="5">
         <f>SUM(R10:R16)</f>
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="S17" s="5">
         <f>SUM(S10:S16)</f>
@@ -3531,7 +3542,7 @@
       </c>
       <c r="U17" s="38">
         <f>SUM(R17:T17)</f>
-        <v>24.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -6487,7 +6498,7 @@
       </c>
       <c r="D86" s="64">
         <f>SUM(D81,D73,D65,D57,D49,D41,D33,D25,D17,D9,K9,K17,K25,K33,K41,K49,K57,K65,K73,K81,R9, R17)</f>
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E86" s="64">
         <f>SUM(E81,E73,E65,E57,E49,E41,E33,E25,E17,E9,L9,L17,L25,L33,L41,L49,L57,L65,L73,L81,S9, S17)</f>
@@ -6499,11 +6510,11 @@
       </c>
       <c r="G86" s="25">
         <f>SUM(D86:F86) + 9</f>
-        <v>447.5</v>
+        <v>454.5</v>
       </c>
       <c r="H86" s="66">
         <f>G86/400</f>
-        <v>1.1187499999999999</v>
+        <v>1.13625</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
@@ -6522,7 +6533,7 @@
       <c r="F88" s="64"/>
       <c r="G88" s="22">
         <f>G86*50</f>
-        <v>22375</v>
+        <v>22725</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
@@ -6534,7 +6545,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.473856209150327</v>
+        <v>20.794117647058822</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6763,7 +6774,7 @@
       </c>
       <c r="C116" s="6">
         <f>U17</f>
-        <v>24.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -6799,7 +6810,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.473856209150327</v>
+        <v>20.794117647058822</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5453AC0A-161E-4F35-8A54-413DEFE47A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6177086E-E38A-4C3E-B984-F60799517463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="275">
   <si>
     <t>Date</t>
   </si>
@@ -851,6 +851,12 @@
   </si>
   <si>
     <t>15:00 - 18:30 20:30 - 20:00</t>
+  </si>
+  <si>
+    <t>Generating Results</t>
+  </si>
+  <si>
+    <t>14:30 - 16:30</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1759,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.794117647058822</c:v>
+                  <c:v>20.65909090909091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2633,7 +2639,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U16" sqref="U16"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,11 +3584,15 @@
       <c r="P18" s="48">
         <v>43990</v>
       </c>
-      <c r="Q18" s="38"/>
+      <c r="Q18" s="38" t="s">
+        <v>274</v>
+      </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="38"/>
+      <c r="U18" s="38" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
@@ -6545,7 +6555,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.794117647058822</v>
+        <v>20.65909090909091</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6810,7 +6820,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.794117647058822</v>
+        <v>20.65909090909091</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6177086E-E38A-4C3E-B984-F60799517463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31A9374-5FB2-44BC-BF66-D121889ACDBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -853,10 +853,10 @@
     <t>15:00 - 18:30 20:30 - 20:00</t>
   </si>
   <si>
-    <t>Generating Results</t>
-  </si>
-  <si>
-    <t>14:30 - 16:30</t>
+    <t>Generating Results + Improving Counting Logic</t>
+  </si>
+  <si>
+    <t>14:30 - 16:30 19:00 - 21:00 22:00 - 01:00</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1750,7 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
                   <c:v>0</c:v>
@@ -1759,7 +1759,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.65909090909091</c:v>
+                  <c:v>20.525806451612905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,9 +2637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3551,7 +3551,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>28</v>
       </c>
@@ -3587,7 +3587,9 @@
       <c r="Q18" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="R18" s="5"/>
+      <c r="R18" s="5">
+        <v>7</v>
+      </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="38" t="s">
@@ -3903,10 +3905,22 @@
       </c>
       <c r="P25" s="48"/>
       <c r="Q25" s="38"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="38"/>
+      <c r="R25" s="5">
+        <f>SUM(R18:R24)</f>
+        <v>7</v>
+      </c>
+      <c r="S25" s="5">
+        <f>SUM(S18:S24)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <f>SUM(T18:T24)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="38">
+        <f>SUM(R25:T25)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
@@ -6555,7 +6569,7 @@
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.65909090909091</v>
+        <v>20.525806451612905</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
@@ -6793,7 +6807,7 @@
       </c>
       <c r="C117" s="7">
         <f>U25</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
@@ -6820,7 +6834,7 @@
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.65909090909091</v>
+        <v>20.525806451612905</v>
       </c>
     </row>
   </sheetData>

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31A9374-5FB2-44BC-BF66-D121889ACDBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D4313-062F-4282-9D7A-D30D289448F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="277">
   <si>
     <t>Date</t>
   </si>
@@ -857,6 +857,12 @@
   </si>
   <si>
     <t>14:30 - 16:30 19:00 - 21:00 22:00 - 01:00</t>
+  </si>
+  <si>
+    <t>12:00 - 14:30</t>
+  </si>
+  <si>
+    <t>Calibration for scene 3</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1756,7 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
                   <c:v>0</c:v>
@@ -2639,7 +2645,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3637,11 +3643,17 @@
       <c r="P19" s="48">
         <v>43991</v>
       </c>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="5"/>
+      <c r="Q19" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="R19" s="5">
+        <v>2.5</v>
+      </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="38"/>
+      <c r="U19" s="38" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
@@ -3907,7 +3919,7 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="5">
         <f>SUM(R18:R24)</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="S25" s="5">
         <f>SUM(S18:S24)</f>
@@ -3919,7 +3931,7 @@
       </c>
       <c r="U25" s="38">
         <f>SUM(R25:T25)</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -6807,7 +6819,7 @@
       </c>
       <c r="C117" s="7">
         <f>U25</f>
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D4313-062F-4282-9D7A-D30D289448F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEFBFD-244E-4340-9A93-50AC1CE00265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,10 +859,10 @@
     <t>14:30 - 16:30 19:00 - 21:00 22:00 - 01:00</t>
   </si>
   <si>
-    <t>12:00 - 14:30</t>
-  </si>
-  <si>
-    <t>Calibration for scene 3</t>
+    <t>Calibration for scene 3 Collecting more samples</t>
+  </si>
+  <si>
+    <t>12:00 - 14:30 15:30 - 16:30 20:00 - 20:30</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1756,7 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
                   <c:v>0</c:v>
@@ -2644,8 +2644,8 @@
   <dimension ref="A1:AMK120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3602,7 +3602,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
@@ -3644,15 +3644,15 @@
         <v>43991</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R19" s="5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -3919,7 +3919,7 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="5">
         <f>SUM(R18:R24)</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="S25" s="5">
         <f>SUM(S18:S24)</f>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="U25" s="38">
         <f>SUM(R25:T25)</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="C117" s="7">
         <f>U25</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">

--- a/Time.xlsx
+++ b/Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\thesisWindows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c3175\Desktop\thesisWindows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEFBFD-244E-4340-9A93-50AC1CE00265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C4FF24-FCB6-4165-8B36-2DD74419FC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="278">
   <si>
     <t>Date</t>
   </si>
@@ -859,21 +859,22 @@
     <t>14:30 - 16:30 19:00 - 21:00 22:00 - 01:00</t>
   </si>
   <si>
-    <t>Calibration for scene 3 Collecting more samples</t>
-  </si>
-  <si>
-    <t>12:00 - 14:30 15:30 - 16:30 20:00 - 20:30</t>
+    <t>12:00 - 14:30 15:30 - 16:30 20:00 - 20:30 22:30 - 23:00</t>
+  </si>
+  <si>
+    <t>Calibration for scene 3 + Collecting more samples + Setting up laptop for demo</t>
+  </si>
+  <si>
+    <t>12:30 - 14:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="d\-mmm"/>
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d/mmm;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1147,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1169,120 +1170,120 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,7 +1293,7 @@
     <xf numFmtId="20" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +1302,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,7 +1326,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,22 +1341,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,13 +1371,13 @@
     <xf numFmtId="2" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,7 +1757,7 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
                   <c:v>0</c:v>
@@ -1765,7 +1766,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0">
-                  <c:v>20.525806451612905</c:v>
+                  <c:v>20.39423076923077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,17 +2270,17 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" customWidth="1"/>
-    <col min="18" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="37.33203125" customWidth="1"/>
+    <col min="18" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2304,7 @@
       <c r="P1" s="85"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2369,7 +2370,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2391,7 +2392,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2408,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2429,7 +2430,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2451,7 +2452,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2474,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2489,7 +2490,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2511,7 +2512,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2533,7 +2534,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2546,7 +2547,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2559,7 +2560,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2572,7 +2573,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2585,7 +2586,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2598,7 +2599,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2611,7 +2612,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2624,7 +2625,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22">
         <f>SUM(B2:B21)</f>
         <v>9.5</v>
@@ -2643,36 +2644,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="67"/>
-    <col min="2" max="2" width="11.5703125" style="5"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="7"/>
-    <col min="5" max="5" width="21.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="67"/>
+    <col min="2" max="2" width="11.5546875" style="5"/>
+    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="7"/>
+    <col min="5" max="5" width="21.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="29" style="61" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="62"/>
-    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="13" width="11.5703125" style="61"/>
-    <col min="14" max="14" width="39.42578125" style="61" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="61" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="63"/>
-    <col min="17" max="17" width="16.28515625" style="6" customWidth="1"/>
-    <col min="18" max="20" width="11.5703125" style="61"/>
-    <col min="21" max="21" width="24.85546875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="33"/>
-    <col min="23" max="1025" width="11.5703125" style="34"/>
-    <col min="1026" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="11.5546875" style="62"/>
+    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="11.5546875" style="61"/>
+    <col min="14" max="14" width="39.44140625" style="61" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="61" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="63"/>
+    <col min="17" max="17" width="16.33203125" style="6" customWidth="1"/>
+    <col min="18" max="20" width="11.5546875" style="61"/>
+    <col min="21" max="21" width="24.88671875" style="6" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" style="33"/>
+    <col min="23" max="1025" width="11.5546875" style="34"/>
+    <col min="1026" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>28</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>44</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>48</v>
       </c>
@@ -3051,7 +3052,7 @@
       </c>
       <c r="U7" s="79"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>52</v>
       </c>
@@ -3090,7 +3091,7 @@
       <c r="T8" s="69"/>
       <c r="U8" s="79"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>54</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>32</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>36</v>
       </c>
@@ -3312,7 +3313,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>40</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>44</v>
       </c>
@@ -3392,7 +3393,7 @@
       <c r="T14" s="46"/>
       <c r="U14" s="82"/>
     </row>
-    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>48</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>52</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>68</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>28</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
@@ -3644,18 +3645,18 @@
         <v>43991</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R19" s="5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="38" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>36</v>
       </c>
@@ -3696,13 +3697,17 @@
       <c r="P20" s="48">
         <v>43992</v>
       </c>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="5"/>
+      <c r="Q20" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="R20" s="5">
+        <v>2</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="38"/>
     </row>
-    <row r="21" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>40</v>
       </c>
@@ -3749,7 +3754,7 @@
       <c r="T21" s="5"/>
       <c r="U21" s="38"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>44</v>
       </c>
@@ -3786,7 +3791,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="38"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>48</v>
       </c>
@@ -3827,7 +3832,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="38"/>
     </row>
-    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>52</v>
       </c>
@@ -3868,7 +3873,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="38"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>78</v>
       </c>
@@ -3919,7 +3924,7 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="5">
         <f>SUM(R18:R24)</f>
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="S25" s="5">
         <f>SUM(S18:S24)</f>
@@ -3931,10 +3936,10 @@
       </c>
       <c r="U25" s="38">
         <f>SUM(R25:T25)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>28</v>
       </c>
@@ -3983,7 +3988,7 @@
       <c r="T26" s="46"/>
       <c r="U26" s="82"/>
     </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>32</v>
       </c>
@@ -4030,7 +4035,7 @@
       <c r="T27" s="46"/>
       <c r="U27" s="82"/>
     </row>
-    <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>36</v>
       </c>
@@ -4073,7 +4078,7 @@
       <c r="T28" s="46"/>
       <c r="U28" s="82"/>
     </row>
-    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>40</v>
       </c>
@@ -4114,7 +4119,7 @@
       <c r="T29" s="46"/>
       <c r="U29" s="82"/>
     </row>
-    <row r="30" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
         <v>44</v>
       </c>
@@ -4155,7 +4160,7 @@
       <c r="T30" s="46"/>
       <c r="U30" s="82"/>
     </row>
-    <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
         <v>48</v>
       </c>
@@ -4196,7 +4201,7 @@
       <c r="T31" s="46"/>
       <c r="U31" s="82"/>
     </row>
-    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
         <v>52</v>
       </c>
@@ -4237,7 +4242,7 @@
       <c r="T32" s="46"/>
       <c r="U32" s="82"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
         <v>83</v>
       </c>
@@ -4295,7 +4300,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="38"/>
     </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>28</v>
       </c>
@@ -4342,7 +4347,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="38"/>
     </row>
-    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>32</v>
       </c>
@@ -4391,7 +4396,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="38"/>
     </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>36</v>
       </c>
@@ -4438,7 +4443,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="38"/>
     </row>
-    <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
         <v>40</v>
       </c>
@@ -4485,7 +4490,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="38"/>
     </row>
-    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
         <v>44</v>
       </c>
@@ -4532,7 +4537,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="38"/>
     </row>
-    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
         <v>48</v>
       </c>
@@ -4579,7 +4584,7 @@
       <c r="T39" s="5"/>
       <c r="U39" s="38"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>52</v>
       </c>
@@ -4626,7 +4631,7 @@
       <c r="T40" s="5"/>
       <c r="U40" s="38"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>92</v>
       </c>
@@ -4682,7 +4687,7 @@
       <c r="T41" s="5"/>
       <c r="U41" s="38"/>
     </row>
-    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
         <v>28</v>
       </c>
@@ -4727,7 +4732,7 @@
       <c r="T42" s="46"/>
       <c r="U42" s="82"/>
     </row>
-    <row r="43" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
         <v>32</v>
       </c>
@@ -4768,7 +4773,7 @@
       <c r="T43" s="46"/>
       <c r="U43" s="82"/>
     </row>
-    <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
         <v>36</v>
       </c>
@@ -4815,7 +4820,7 @@
       <c r="T44" s="46"/>
       <c r="U44" s="82"/>
     </row>
-    <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
         <v>40</v>
       </c>
@@ -4862,7 +4867,7 @@
       <c r="T45" s="46"/>
       <c r="U45" s="82"/>
     </row>
-    <row r="46" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
         <v>44</v>
       </c>
@@ -4903,7 +4908,7 @@
       <c r="T46" s="46"/>
       <c r="U46" s="82"/>
     </row>
-    <row r="47" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
         <v>48</v>
       </c>
@@ -4944,7 +4949,7 @@
       <c r="T47" s="46"/>
       <c r="U47" s="82"/>
     </row>
-    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
         <v>52</v>
       </c>
@@ -4991,7 +4996,7 @@
       <c r="T48" s="46"/>
       <c r="U48" s="82"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>97</v>
       </c>
@@ -5044,7 +5049,7 @@
       <c r="T49" s="46"/>
       <c r="U49" s="82"/>
     </row>
-    <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
         <v>28</v>
       </c>
@@ -5091,7 +5096,7 @@
       <c r="T50" s="5"/>
       <c r="U50" s="38"/>
     </row>
-    <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
         <v>32</v>
       </c>
@@ -5138,7 +5143,7 @@
       <c r="T51" s="5"/>
       <c r="U51" s="38"/>
     </row>
-    <row r="52" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
         <v>36</v>
       </c>
@@ -5185,7 +5190,7 @@
       <c r="T52" s="5"/>
       <c r="U52" s="38"/>
     </row>
-    <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
         <v>40</v>
       </c>
@@ -5232,7 +5237,7 @@
       <c r="T53" s="5"/>
       <c r="U53" s="38"/>
     </row>
-    <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
         <v>44</v>
       </c>
@@ -5279,7 +5284,7 @@
       <c r="T54" s="5"/>
       <c r="U54" s="38"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>48</v>
       </c>
@@ -5320,7 +5325,7 @@
       <c r="T55" s="5"/>
       <c r="U55" s="38"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
         <v>52</v>
       </c>
@@ -5361,7 +5366,7 @@
       <c r="T56" s="5"/>
       <c r="U56" s="38"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>110</v>
       </c>
@@ -5417,7 +5422,7 @@
       <c r="T57" s="5"/>
       <c r="U57" s="38"/>
     </row>
-    <row r="58" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
         <v>28</v>
       </c>
@@ -5466,7 +5471,7 @@
       <c r="T58" s="46"/>
       <c r="U58" s="82"/>
     </row>
-    <row r="59" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
         <v>32</v>
       </c>
@@ -5509,7 +5514,7 @@
       <c r="T59" s="46"/>
       <c r="U59" s="82"/>
     </row>
-    <row r="60" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
         <v>36</v>
       </c>
@@ -5556,7 +5561,7 @@
       <c r="T60" s="46"/>
       <c r="U60" s="82"/>
     </row>
-    <row r="61" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
         <v>40</v>
       </c>
@@ -5605,7 +5610,7 @@
       <c r="T61" s="46"/>
       <c r="U61" s="82"/>
     </row>
-    <row r="62" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
         <v>44</v>
       </c>
@@ -5646,7 +5651,7 @@
       <c r="T62" s="46"/>
       <c r="U62" s="82"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
         <v>48</v>
       </c>
@@ -5687,7 +5692,7 @@
       <c r="T63" s="46"/>
       <c r="U63" s="82"/>
     </row>
-    <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
         <v>52</v>
       </c>
@@ -5734,7 +5739,7 @@
       <c r="T64" s="46"/>
       <c r="U64" s="82"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>118</v>
       </c>
@@ -5789,7 +5794,7 @@
       <c r="T65" s="46"/>
       <c r="U65" s="82"/>
     </row>
-    <row r="66" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
         <v>28</v>
       </c>
@@ -5832,7 +5837,7 @@
       <c r="T66" s="74"/>
       <c r="U66" s="83"/>
     </row>
-    <row r="67" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
         <v>32</v>
       </c>
@@ -5875,7 +5880,7 @@
       <c r="T67" s="74"/>
       <c r="U67" s="83"/>
     </row>
-    <row r="68" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
         <v>36</v>
       </c>
@@ -5918,7 +5923,7 @@
       <c r="T68" s="74"/>
       <c r="U68" s="83"/>
     </row>
-    <row r="69" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
         <v>40</v>
       </c>
@@ -5961,7 +5966,7 @@
       <c r="T69" s="74"/>
       <c r="U69" s="83"/>
     </row>
-    <row r="70" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
         <v>44</v>
       </c>
@@ -6004,7 +6009,7 @@
       <c r="T70" s="74"/>
       <c r="U70" s="83"/>
     </row>
-    <row r="71" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
         <v>48</v>
       </c>
@@ -6047,7 +6052,7 @@
       <c r="T71" s="74"/>
       <c r="U71" s="83"/>
     </row>
-    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
         <v>52</v>
       </c>
@@ -6084,7 +6089,7 @@
       <c r="T72" s="74"/>
       <c r="U72" s="83"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>133</v>
       </c>
@@ -6139,7 +6144,7 @@
       <c r="T73" s="74"/>
       <c r="U73" s="83"/>
     </row>
-    <row r="74" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
         <v>28</v>
       </c>
@@ -6182,7 +6187,7 @@
       <c r="T74" s="74"/>
       <c r="U74" s="83"/>
     </row>
-    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
         <v>32</v>
       </c>
@@ -6225,7 +6230,7 @@
       <c r="T75" s="74"/>
       <c r="U75" s="83"/>
     </row>
-    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
         <v>36</v>
       </c>
@@ -6268,7 +6273,7 @@
       <c r="T76" s="74"/>
       <c r="U76" s="83"/>
     </row>
-    <row r="77" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
         <v>40</v>
       </c>
@@ -6311,7 +6316,7 @@
       <c r="T77" s="74"/>
       <c r="U77" s="83"/>
     </row>
-    <row r="78" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
         <v>44</v>
       </c>
@@ -6354,7 +6359,7 @@
       <c r="T78" s="74"/>
       <c r="U78" s="83"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
         <v>48</v>
       </c>
@@ -6391,7 +6396,7 @@
       <c r="T79" s="74"/>
       <c r="U79" s="83"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
         <v>52</v>
       </c>
@@ -6428,7 +6433,7 @@
       <c r="T80" s="74"/>
       <c r="U80" s="83"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="58"/>
       <c r="B81" s="14" t="s">
         <v>55</v>
@@ -6479,7 +6484,7 @@
       <c r="T81" s="74"/>
       <c r="U81" s="83"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="59"/>
       <c r="B82" s="60"/>
       <c r="C82" s="21"/>
@@ -6488,7 +6493,7 @@
       <c r="F82" s="24"/>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="59"/>
       <c r="B83" s="13"/>
       <c r="C83" s="22"/>
@@ -6497,7 +6502,7 @@
       <c r="F83" s="24"/>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="59"/>
       <c r="B84" s="60"/>
       <c r="C84" s="21"/>
@@ -6506,7 +6511,7 @@
       <c r="F84" s="24"/>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="59"/>
       <c r="B85" s="60"/>
       <c r="C85" s="21"/>
@@ -6526,7 +6531,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="59"/>
       <c r="B86" s="13"/>
       <c r="C86" s="22" t="s">
@@ -6553,7 +6558,7 @@
         <v>1.13625</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B87" s="60"/>
       <c r="C87" s="21"/>
       <c r="D87" s="23"/>
@@ -6561,7 +6566,7 @@
       <c r="F87" s="24"/>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B88" s="60"/>
       <c r="C88" s="26"/>
       <c r="D88" s="23"/>
@@ -6572,19 +6577,19 @@
         <v>22725</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B89" s="27"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D90" s="7" t="s">
         <v>148</v>
       </c>
       <c r="E90" s="28">
         <f ca="1">G86/(DATEDIF("2020-01-06",TODAY(),"d")/7)</f>
-        <v>20.525806451612905</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+        <v>20.39423076923077</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D93" s="76" t="s">
         <v>234</v>
       </c>
@@ -6592,7 +6597,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>149</v>
       </c>
@@ -6606,7 +6611,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>23</v>
       </c>
@@ -6621,7 +6626,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B96" s="7" t="s">
         <v>54</v>
       </c>
@@ -6630,7 +6635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>68</v>
       </c>
@@ -6639,7 +6644,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>78</v>
       </c>
@@ -6648,7 +6653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>83</v>
       </c>
@@ -6657,7 +6662,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
         <v>92</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
         <v>97</v>
       </c>
@@ -6675,7 +6680,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>110</v>
       </c>
@@ -6684,7 +6689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>118</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>133</v>
       </c>
@@ -6702,7 +6707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>27</v>
       </c>
@@ -6711,7 +6716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
         <v>56</v>
       </c>
@@ -6720,7 +6725,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>69</v>
       </c>
@@ -6729,7 +6734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
         <v>150</v>
       </c>
@@ -6738,7 +6743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
         <v>151</v>
       </c>
@@ -6750,7 +6755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>152</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>153</v>
       </c>
@@ -6768,7 +6773,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>154</v>
       </c>
@@ -6777,7 +6782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
         <v>155</v>
       </c>
@@ -6786,7 +6791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>156</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>157</v>
       </c>
@@ -6804,7 +6809,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="5" t="s">
         <v>213</v>
       </c>
@@ -6813,16 +6818,16 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C117" s="7">
         <f>U25</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="5" t="s">
         <v>215</v>
       </c>
@@ -6831,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="5" t="s">
         <v>216</v>
       </c>
@@ -6840,13 +6845,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C120" s="29">
         <f ca="1">E90</f>
-        <v>20.525806451612905</v>
+        <v>20.39423076923077</v>
       </c>
     </row>
   </sheetData>
@@ -6877,9 +6882,9 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125" style="8"/>
+    <col min="1" max="1025" width="11.5546875" style="8"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
